--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="18840" windowHeight="7460" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="18840" windowHeight="7460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="LDV freight" sheetId="21" r:id="rId6"/>
     <sheet name="HDV psg" sheetId="18" r:id="rId7"/>
     <sheet name="Motorbikes" sheetId="16" r:id="rId8"/>
-    <sheet name="California and US popuplation" sheetId="19" r:id="rId9"/>
+    <sheet name="California and US population" sheetId="19" r:id="rId9"/>
     <sheet name="AEO 49" sheetId="5" r:id="rId10"/>
     <sheet name="Aviation" sheetId="24" r:id="rId11"/>
     <sheet name="FRA" sheetId="13" r:id="rId12"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="491">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -2724,15 +2724,9 @@
     <t>PHEV</t>
   </si>
   <si>
-    <t>updated electric</t>
-  </si>
-  <si>
     <t>https://www.cncda.org/wp-content/uploads/California-Covering-4Q-2017-1.pdf</t>
   </si>
   <si>
-    <t>PEV</t>
-  </si>
-  <si>
     <t>California auto dealers association data below (aslo link to source)</t>
   </si>
   <si>
@@ -2745,9 +2739,6 @@
     <t>Updated LDV data</t>
   </si>
   <si>
-    <t xml:space="preserve">Use motorvehicles </t>
-  </si>
-  <si>
     <t>"Non-CVRA Trucks/Coml. Vehicles *" = these include pickup trucks</t>
   </si>
   <si>
@@ -2757,36 +2748,9 @@
     <t>CA DMV data on registrations</t>
   </si>
   <si>
-    <t>emissions in transportation</t>
-  </si>
-  <si>
-    <t>While not specific enough to be translated directly to EPS categories, these data provide</t>
-  </si>
-  <si>
     <t>2017 data</t>
   </si>
   <si>
-    <t>We re-calibrate initial stock (i.e., this variable, start year vehicles by technology for LDVs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to align with new information. </t>
-  </si>
-  <si>
-    <t>These do not include trucks.  These also overlap with BEV and PHEV vehicles categories.</t>
-  </si>
-  <si>
-    <t>These opposite effects are considered to canceled each other out, and this</t>
-  </si>
-  <si>
-    <t>stock is used for LDV gas</t>
-  </si>
-  <si>
-    <t>During review, checking, and calibration, we noted a shortfall in GHG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clear indication of under counting in initial input data.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Energy + Environmental Economics, Inc.  </t>
   </si>
   <si>
@@ -2818,13 +2782,171 @@
   </si>
   <si>
     <t xml:space="preserve">For electric vehicles </t>
+  </si>
+  <si>
+    <t>PSGR class</t>
+  </si>
+  <si>
+    <t>Freight class</t>
+  </si>
+  <si>
+    <t>Sum of freight</t>
+  </si>
+  <si>
+    <t>Sum of psgr - excluding LDV</t>
+  </si>
+  <si>
+    <t>Sum before LDV psgr</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>BEV and PHEV from other sources</t>
+  </si>
+  <si>
+    <t>California Air Resources Board</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data used to generate figures in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>California Greenhouse Gas Emissions for 2000 to 2017- Trends of Emissions and Other Indicators</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> report</t>
+    </r>
+  </si>
+  <si>
+    <t>Figure 3: Trends in California GHG Emissions</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <r>
+      <t>MMT CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <t>Electric Power</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Commercial &amp; Residential</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>High GWP</t>
+  </si>
+  <si>
+    <t>Recycling &amp; Waste</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> California Air Resources Board (2019). California Greenhouse Gas Emission Inventory - 2019 Edition.  Data available at: https://ww3.arb.ca.gov/cc/inventory/data/data.htm</t>
+    </r>
+  </si>
+  <si>
+    <t>most recent run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desired level </t>
+  </si>
+  <si>
+    <t>adjustment ratio</t>
+  </si>
+  <si>
+    <t>overshooting transportation</t>
+  </si>
+  <si>
+    <t>2017 values</t>
+  </si>
+  <si>
+    <t>Gas implied</t>
+  </si>
+  <si>
+    <t>Automobiles from DMV</t>
+  </si>
+  <si>
+    <t>subtract</t>
+  </si>
+  <si>
+    <t>BEV and PHEV from car dealer association data.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
+  <numFmts count="11">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -2834,8 +2956,10 @@
     <numFmt numFmtId="168" formatCode="\(\R\)\ #,##0"/>
     <numFmt numFmtId="169" formatCode="###0.00_)"/>
     <numFmt numFmtId="170" formatCode="#,##0_)"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="64">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3182,8 +3306,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3338,6 +3509,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3684,7 +3861,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="146">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
@@ -3899,8 +4076,9 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="62" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -4105,6 +4283,37 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="145"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="145"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="22" xfId="143" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="30" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="144" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4198,10 +4407,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="146">
+  <cellStyles count="147">
     <cellStyle name="20% - Accent1 2" xfId="17"/>
     <cellStyle name="20% - Accent2 2" xfId="18"/>
     <cellStyle name="20% - Accent3 2" xfId="19"/>
@@ -4237,6 +4444,7 @@
     <cellStyle name="Comma 2 2 3" xfId="46"/>
     <cellStyle name="Comma 2 3" xfId="47"/>
     <cellStyle name="Comma 3" xfId="48"/>
+    <cellStyle name="Comma 3 2" xfId="146"/>
     <cellStyle name="Comma 4" xfId="49"/>
     <cellStyle name="Comma 5" xfId="50"/>
     <cellStyle name="Comma 6" xfId="51"/>
@@ -4355,9 +4563,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4366,16 +4571,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>113371</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>139421</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>265772</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15596</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4392,8 +4597,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4057650"/>
-          <a:ext cx="7428571" cy="2158721"/>
+          <a:off x="4429125" y="3311525"/>
+          <a:ext cx="7428571" cy="2228571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4404,16 +4609,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>604714</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190096</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>373736</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>5840</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>593913</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>154318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4430,8 +4635,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5481514" y="6223000"/>
-          <a:ext cx="5255422" cy="2806190"/>
+          <a:off x="5837861" y="3752685"/>
+          <a:ext cx="7665228" cy="4268162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4733,7 +4938,7 @@
   <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4751,37 +4956,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="98" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="98" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="98" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="98" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="98" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="17" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4794,7 +4999,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4804,7 +5009,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="101" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4812,12 +5017,12 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="16" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -4827,12 +5032,12 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -26066,46 +26271,46 @@
       </c>
     </row>
     <row r="198" spans="1:39" ht="15" customHeight="1">
-      <c r="B198" s="107" t="s">
+      <c r="B198" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="C198" s="107"/>
-      <c r="D198" s="107"/>
-      <c r="E198" s="107"/>
-      <c r="F198" s="107"/>
-      <c r="G198" s="107"/>
-      <c r="H198" s="107"/>
-      <c r="I198" s="107"/>
-      <c r="J198" s="107"/>
-      <c r="K198" s="107"/>
-      <c r="L198" s="107"/>
-      <c r="M198" s="107"/>
-      <c r="N198" s="107"/>
-      <c r="O198" s="107"/>
-      <c r="P198" s="107"/>
-      <c r="Q198" s="107"/>
-      <c r="R198" s="107"/>
-      <c r="S198" s="107"/>
-      <c r="T198" s="107"/>
-      <c r="U198" s="107"/>
-      <c r="V198" s="107"/>
-      <c r="W198" s="107"/>
-      <c r="X198" s="107"/>
-      <c r="Y198" s="107"/>
-      <c r="Z198" s="107"/>
-      <c r="AA198" s="107"/>
-      <c r="AB198" s="107"/>
-      <c r="AC198" s="107"/>
-      <c r="AD198" s="107"/>
-      <c r="AE198" s="107"/>
-      <c r="AF198" s="107"/>
-      <c r="AG198" s="107"/>
-      <c r="AH198" s="107"/>
-      <c r="AI198" s="107"/>
-      <c r="AJ198" s="107"/>
-      <c r="AK198" s="107"/>
-      <c r="AL198" s="107"/>
-      <c r="AM198" s="107"/>
+      <c r="C198" s="128"/>
+      <c r="D198" s="128"/>
+      <c r="E198" s="128"/>
+      <c r="F198" s="128"/>
+      <c r="G198" s="128"/>
+      <c r="H198" s="128"/>
+      <c r="I198" s="128"/>
+      <c r="J198" s="128"/>
+      <c r="K198" s="128"/>
+      <c r="L198" s="128"/>
+      <c r="M198" s="128"/>
+      <c r="N198" s="128"/>
+      <c r="O198" s="128"/>
+      <c r="P198" s="128"/>
+      <c r="Q198" s="128"/>
+      <c r="R198" s="128"/>
+      <c r="S198" s="128"/>
+      <c r="T198" s="128"/>
+      <c r="U198" s="128"/>
+      <c r="V198" s="128"/>
+      <c r="W198" s="128"/>
+      <c r="X198" s="128"/>
+      <c r="Y198" s="128"/>
+      <c r="Z198" s="128"/>
+      <c r="AA198" s="128"/>
+      <c r="AB198" s="128"/>
+      <c r="AC198" s="128"/>
+      <c r="AD198" s="128"/>
+      <c r="AE198" s="128"/>
+      <c r="AF198" s="128"/>
+      <c r="AG198" s="128"/>
+      <c r="AH198" s="128"/>
+      <c r="AI198" s="128"/>
+      <c r="AJ198" s="128"/>
+      <c r="AK198" s="128"/>
+      <c r="AL198" s="128"/>
+      <c r="AM198" s="128"/>
     </row>
     <row r="199" spans="1:39" ht="15" customHeight="1">
       <c r="B199" s="3" t="s">
@@ -26117,7 +26322,7 @@
     <mergeCell ref="B198:AM198"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -26162,7 +26367,7 @@
         <v>411</v>
       </c>
       <c r="B4" s="80">
-        <f>B3*'California and US popuplation'!D23</f>
+        <f>B3*'California and US population'!D23</f>
         <v>994.97654159803574</v>
       </c>
     </row>
@@ -26623,7 +26828,7 @@
   </sheetPr>
   <dimension ref="A1:AK112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -26898,40 +27103,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="147" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="126"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="147"/>
     </row>
     <row r="2" spans="1:36" s="61" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="65"/>
@@ -30100,24 +30305,24 @@
       </c>
     </row>
     <row r="35" spans="1:37" s="26" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A35" s="129" t="s">
+      <c r="A35" s="150" t="s">
         <v>302</v>
       </c>
-      <c r="B35" s="129"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="129"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="129"/>
-      <c r="N35" s="129"/>
-      <c r="O35" s="129"/>
-      <c r="P35" s="129"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
+      <c r="N35" s="150"/>
+      <c r="O35" s="150"/>
+      <c r="P35" s="150"/>
       <c r="Q35" s="30"/>
       <c r="R35" s="30"/>
       <c r="S35" s="30"/>
@@ -30134,46 +30339,46 @@
       <c r="AE35" s="19"/>
     </row>
     <row r="36" spans="1:37" s="26" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A36" s="131"/>
-      <c r="B36" s="131"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="131"/>
-      <c r="K36" s="131"/>
-      <c r="L36" s="131"/>
-      <c r="M36" s="131"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="131"/>
-      <c r="P36" s="131"/>
+      <c r="A36" s="152"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="152"/>
+      <c r="M36" s="152"/>
+      <c r="N36" s="152"/>
+      <c r="O36" s="152"/>
+      <c r="P36" s="152"/>
       <c r="Q36" s="29"/>
       <c r="R36" s="28"/>
       <c r="S36" s="28"/>
       <c r="T36" s="27"/>
     </row>
     <row r="37" spans="1:37" s="23" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A37" s="132" t="s">
+      <c r="A37" s="153" t="s">
         <v>301</v>
       </c>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="132"/>
-      <c r="L37" s="132"/>
-      <c r="M37" s="132"/>
-      <c r="N37" s="132"/>
-      <c r="O37" s="132"/>
-      <c r="P37" s="132"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="153"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
+      <c r="N37" s="153"/>
+      <c r="O37" s="153"/>
+      <c r="P37" s="153"/>
       <c r="Q37" s="25"/>
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
@@ -30187,24 +30392,24 @@
       </c>
     </row>
     <row r="38" spans="1:37" s="23" customFormat="1" ht="37.5">
-      <c r="A38" s="130" t="s">
+      <c r="A38" s="151" t="s">
         <v>300</v>
       </c>
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="130"/>
-      <c r="O38" s="130"/>
-      <c r="P38" s="130"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="151"/>
+      <c r="O38" s="151"/>
+      <c r="P38" s="151"/>
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
@@ -30218,1562 +30423,1562 @@
       </c>
     </row>
     <row r="39" spans="1:37" s="23" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A39" s="121" t="s">
+      <c r="A39" s="142" t="s">
         <v>299</v>
       </c>
-      <c r="B39" s="121"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="121"/>
-      <c r="K39" s="121"/>
-      <c r="L39" s="121"/>
-      <c r="M39" s="121"/>
-      <c r="N39" s="121"/>
-      <c r="O39" s="121"/>
-      <c r="P39" s="121"/>
+      <c r="B39" s="142"/>
+      <c r="C39" s="142"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="142"/>
+      <c r="F39" s="142"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="142"/>
+      <c r="J39" s="142"/>
+      <c r="K39" s="142"/>
+      <c r="L39" s="142"/>
+      <c r="M39" s="142"/>
+      <c r="N39" s="142"/>
+      <c r="O39" s="142"/>
+      <c r="P39" s="142"/>
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
       <c r="T39" s="24"/>
     </row>
     <row r="40" spans="1:37" s="23" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="131" t="s">
         <v>298</v>
       </c>
-      <c r="B40" s="110"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="110"/>
-      <c r="O40" s="110"/>
-      <c r="P40" s="110"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="131"/>
+      <c r="M40" s="131"/>
+      <c r="N40" s="131"/>
+      <c r="O40" s="131"/>
+      <c r="P40" s="131"/>
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
       <c r="T40" s="24"/>
     </row>
     <row r="41" spans="1:37" s="23" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="131" t="s">
         <v>297</v>
       </c>
-      <c r="B41" s="110"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="110"/>
-      <c r="N41" s="110"/>
-      <c r="O41" s="110"/>
-      <c r="P41" s="110"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="131"/>
+      <c r="K41" s="131"/>
+      <c r="L41" s="131"/>
+      <c r="M41" s="131"/>
+      <c r="N41" s="131"/>
+      <c r="O41" s="131"/>
+      <c r="P41" s="131"/>
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
       <c r="T41" s="24"/>
     </row>
     <row r="42" spans="1:37" s="23" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="130" t="s">
+      <c r="A42" s="151" t="s">
         <v>296</v>
       </c>
-      <c r="B42" s="130"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="130"/>
-      <c r="K42" s="130"/>
-      <c r="L42" s="130"/>
-      <c r="M42" s="130"/>
-      <c r="N42" s="130"/>
-      <c r="O42" s="130"/>
-      <c r="P42" s="130"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="151"/>
+      <c r="L42" s="151"/>
+      <c r="M42" s="151"/>
+      <c r="N42" s="151"/>
+      <c r="O42" s="151"/>
+      <c r="P42" s="151"/>
       <c r="T42" s="24"/>
     </row>
     <row r="43" spans="1:37" s="23" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="121" t="s">
+      <c r="A43" s="142" t="s">
         <v>295</v>
       </c>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="121"/>
-      <c r="P43" s="121"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="142"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="142"/>
+      <c r="M43" s="142"/>
+      <c r="N43" s="142"/>
+      <c r="O43" s="142"/>
+      <c r="P43" s="142"/>
       <c r="T43" s="24"/>
     </row>
     <row r="44" spans="1:37" s="23" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A44" s="121" t="s">
+      <c r="A44" s="142" t="s">
         <v>294</v>
       </c>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="121"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="121"/>
-      <c r="N44" s="121"/>
-      <c r="O44" s="121"/>
-      <c r="P44" s="121"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="142"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="142"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="142"/>
+      <c r="H44" s="142"/>
+      <c r="I44" s="142"/>
+      <c r="J44" s="142"/>
+      <c r="K44" s="142"/>
+      <c r="L44" s="142"/>
+      <c r="M44" s="142"/>
+      <c r="N44" s="142"/>
+      <c r="O44" s="142"/>
+      <c r="P44" s="142"/>
       <c r="T44" s="24"/>
     </row>
     <row r="45" spans="1:37" s="23" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A45" s="117" t="s">
+      <c r="A45" s="138" t="s">
         <v>293</v>
       </c>
-      <c r="B45" s="117"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="117"/>
-      <c r="J45" s="117"/>
-      <c r="K45" s="117"/>
-      <c r="L45" s="117"/>
-      <c r="M45" s="117"/>
-      <c r="N45" s="117"/>
-      <c r="O45" s="117"/>
-      <c r="P45" s="117"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="138"/>
+      <c r="J45" s="138"/>
+      <c r="K45" s="138"/>
+      <c r="L45" s="138"/>
+      <c r="M45" s="138"/>
+      <c r="N45" s="138"/>
+      <c r="O45" s="138"/>
+      <c r="P45" s="138"/>
       <c r="T45" s="24"/>
     </row>
     <row r="46" spans="1:37" s="23" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A46" s="110" t="s">
+      <c r="A46" s="131" t="s">
         <v>292</v>
       </c>
-      <c r="B46" s="110"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="110"/>
-      <c r="N46" s="110"/>
-      <c r="O46" s="110"/>
-      <c r="P46" s="110"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="131"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="131"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="131"/>
+      <c r="J46" s="131"/>
+      <c r="K46" s="131"/>
+      <c r="L46" s="131"/>
+      <c r="M46" s="131"/>
+      <c r="N46" s="131"/>
+      <c r="O46" s="131"/>
+      <c r="P46" s="131"/>
       <c r="T46" s="24"/>
     </row>
     <row r="47" spans="1:37" s="23" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A47" s="110" t="s">
+      <c r="A47" s="131" t="s">
         <v>291</v>
       </c>
-      <c r="B47" s="110"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
-      <c r="K47" s="110"/>
-      <c r="L47" s="110"/>
-      <c r="M47" s="110"/>
-      <c r="N47" s="110"/>
-      <c r="O47" s="110"/>
-      <c r="P47" s="110"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="131"/>
+      <c r="L47" s="131"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="131"/>
+      <c r="O47" s="131"/>
+      <c r="P47" s="131"/>
       <c r="T47" s="24"/>
     </row>
     <row r="48" spans="1:37" s="23" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A48" s="110" t="s">
+      <c r="A48" s="131" t="s">
         <v>290</v>
       </c>
-      <c r="B48" s="110"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="110"/>
-      <c r="M48" s="110"/>
-      <c r="N48" s="110"/>
-      <c r="O48" s="110"/>
-      <c r="P48" s="110"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="131"/>
+      <c r="L48" s="131"/>
+      <c r="M48" s="131"/>
+      <c r="N48" s="131"/>
+      <c r="O48" s="131"/>
+      <c r="P48" s="131"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:20" s="23" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="131" t="s">
         <v>289</v>
       </c>
-      <c r="B49" s="110"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="110"/>
-      <c r="K49" s="110"/>
-      <c r="L49" s="110"/>
-      <c r="M49" s="110"/>
-      <c r="N49" s="110"/>
-      <c r="O49" s="110"/>
-      <c r="P49" s="110"/>
+      <c r="B49" s="131"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="131"/>
+      <c r="E49" s="131"/>
+      <c r="F49" s="131"/>
+      <c r="G49" s="131"/>
+      <c r="H49" s="131"/>
+      <c r="I49" s="131"/>
+      <c r="J49" s="131"/>
+      <c r="K49" s="131"/>
+      <c r="L49" s="131"/>
+      <c r="M49" s="131"/>
+      <c r="N49" s="131"/>
+      <c r="O49" s="131"/>
+      <c r="P49" s="131"/>
       <c r="T49" s="24"/>
     </row>
     <row r="50" spans="1:20" s="23" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A50" s="110" t="s">
+      <c r="A50" s="131" t="s">
         <v>288</v>
       </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="110"/>
-      <c r="I50" s="110"/>
-      <c r="J50" s="110"/>
-      <c r="K50" s="110"/>
-      <c r="L50" s="110"/>
-      <c r="M50" s="110"/>
-      <c r="N50" s="110"/>
-      <c r="O50" s="110"/>
-      <c r="P50" s="110"/>
+      <c r="B50" s="131"/>
+      <c r="C50" s="131"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="131"/>
+      <c r="F50" s="131"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="131"/>
+      <c r="L50" s="131"/>
+      <c r="M50" s="131"/>
+      <c r="N50" s="131"/>
+      <c r="O50" s="131"/>
+      <c r="P50" s="131"/>
       <c r="T50" s="24"/>
     </row>
     <row r="51" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A51" s="122"/>
-      <c r="B51" s="122"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="122"/>
-      <c r="P51" s="122"/>
+      <c r="A51" s="143"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="143"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="143"/>
+      <c r="I51" s="143"/>
+      <c r="J51" s="143"/>
+      <c r="K51" s="143"/>
+      <c r="L51" s="143"/>
+      <c r="M51" s="143"/>
+      <c r="N51" s="143"/>
+      <c r="O51" s="143"/>
+      <c r="P51" s="143"/>
       <c r="T51" s="22"/>
     </row>
     <row r="52" spans="1:20" s="23" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A52" s="125" t="s">
+      <c r="A52" s="146" t="s">
         <v>287</v>
       </c>
-      <c r="B52" s="125"/>
-      <c r="C52" s="125"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="125"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="125"/>
-      <c r="M52" s="125"/>
-      <c r="N52" s="125"/>
-      <c r="O52" s="125"/>
-      <c r="P52" s="125"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="146"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="146"/>
+      <c r="J52" s="146"/>
+      <c r="K52" s="146"/>
+      <c r="L52" s="146"/>
+      <c r="M52" s="146"/>
+      <c r="N52" s="146"/>
+      <c r="O52" s="146"/>
+      <c r="P52" s="146"/>
       <c r="T52" s="24"/>
     </row>
     <row r="53" spans="1:20" s="23" customFormat="1" ht="42" customHeight="1">
-      <c r="A53" s="117" t="s">
+      <c r="A53" s="138" t="s">
         <v>286</v>
       </c>
-      <c r="B53" s="117"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="117"/>
-      <c r="G53" s="117"/>
-      <c r="H53" s="117"/>
-      <c r="I53" s="117"/>
-      <c r="J53" s="117"/>
-      <c r="K53" s="117"/>
-      <c r="L53" s="117"/>
-      <c r="M53" s="117"/>
-      <c r="N53" s="117"/>
-      <c r="O53" s="117"/>
-      <c r="P53" s="117"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="138"/>
+      <c r="F53" s="138"/>
+      <c r="G53" s="138"/>
+      <c r="H53" s="138"/>
+      <c r="I53" s="138"/>
+      <c r="J53" s="138"/>
+      <c r="K53" s="138"/>
+      <c r="L53" s="138"/>
+      <c r="M53" s="138"/>
+      <c r="N53" s="138"/>
+      <c r="O53" s="138"/>
+      <c r="P53" s="138"/>
       <c r="T53" s="24"/>
     </row>
     <row r="54" spans="1:20" s="23" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A54" s="118" t="s">
+      <c r="A54" s="139" t="s">
         <v>285</v>
       </c>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="118"/>
-      <c r="F54" s="118"/>
-      <c r="G54" s="118"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="118"/>
-      <c r="J54" s="118"/>
-      <c r="K54" s="118"/>
-      <c r="L54" s="118"/>
-      <c r="M54" s="118"/>
-      <c r="N54" s="118"/>
-      <c r="O54" s="118"/>
-      <c r="P54" s="118"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="139"/>
+      <c r="I54" s="139"/>
+      <c r="J54" s="139"/>
+      <c r="K54" s="139"/>
+      <c r="L54" s="139"/>
+      <c r="M54" s="139"/>
+      <c r="N54" s="139"/>
+      <c r="O54" s="139"/>
+      <c r="P54" s="139"/>
       <c r="T54" s="24"/>
     </row>
     <row r="55" spans="1:20" s="23" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A55" s="123" t="s">
+      <c r="A55" s="144" t="s">
         <v>284</v>
       </c>
-      <c r="B55" s="123"/>
-      <c r="C55" s="123"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="123"/>
-      <c r="H55" s="123"/>
-      <c r="I55" s="123"/>
-      <c r="J55" s="123"/>
-      <c r="K55" s="123"/>
-      <c r="L55" s="123"/>
-      <c r="M55" s="123"/>
-      <c r="N55" s="123"/>
-      <c r="O55" s="123"/>
-      <c r="P55" s="123"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
+      <c r="G55" s="144"/>
+      <c r="H55" s="144"/>
+      <c r="I55" s="144"/>
+      <c r="J55" s="144"/>
+      <c r="K55" s="144"/>
+      <c r="L55" s="144"/>
+      <c r="M55" s="144"/>
+      <c r="N55" s="144"/>
+      <c r="O55" s="144"/>
+      <c r="P55" s="144"/>
       <c r="T55" s="24"/>
     </row>
     <row r="56" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A56" s="118" t="s">
+      <c r="A56" s="139" t="s">
         <v>283</v>
       </c>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="118"/>
-      <c r="F56" s="118"/>
-      <c r="G56" s="118"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="118"/>
-      <c r="J56" s="118"/>
-      <c r="K56" s="118"/>
-      <c r="L56" s="118"/>
-      <c r="M56" s="118"/>
-      <c r="N56" s="118"/>
-      <c r="O56" s="118"/>
-      <c r="P56" s="118"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="139"/>
+      <c r="I56" s="139"/>
+      <c r="J56" s="139"/>
+      <c r="K56" s="139"/>
+      <c r="L56" s="139"/>
+      <c r="M56" s="139"/>
+      <c r="N56" s="139"/>
+      <c r="O56" s="139"/>
+      <c r="P56" s="139"/>
       <c r="T56" s="22"/>
     </row>
     <row r="57" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A57" s="118" t="s">
+      <c r="A57" s="139" t="s">
         <v>282</v>
       </c>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="118"/>
-      <c r="G57" s="118"/>
-      <c r="H57" s="118"/>
-      <c r="I57" s="118"/>
-      <c r="J57" s="118"/>
-      <c r="K57" s="118"/>
-      <c r="L57" s="118"/>
-      <c r="M57" s="118"/>
-      <c r="N57" s="118"/>
-      <c r="O57" s="118"/>
-      <c r="P57" s="118"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="139"/>
+      <c r="D57" s="139"/>
+      <c r="E57" s="139"/>
+      <c r="F57" s="139"/>
+      <c r="G57" s="139"/>
+      <c r="H57" s="139"/>
+      <c r="I57" s="139"/>
+      <c r="J57" s="139"/>
+      <c r="K57" s="139"/>
+      <c r="L57" s="139"/>
+      <c r="M57" s="139"/>
+      <c r="N57" s="139"/>
+      <c r="O57" s="139"/>
+      <c r="P57" s="139"/>
       <c r="T57" s="22"/>
     </row>
     <row r="58" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A58" s="128" t="s">
+      <c r="A58" s="149" t="s">
         <v>281</v>
       </c>
-      <c r="B58" s="128"/>
-      <c r="C58" s="128"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="128"/>
-      <c r="F58" s="128"/>
-      <c r="G58" s="128"/>
-      <c r="H58" s="128"/>
-      <c r="I58" s="128"/>
-      <c r="J58" s="128"/>
-      <c r="K58" s="128"/>
-      <c r="L58" s="128"/>
-      <c r="M58" s="128"/>
-      <c r="N58" s="128"/>
-      <c r="O58" s="128"/>
-      <c r="P58" s="128"/>
+      <c r="B58" s="149"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="149"/>
+      <c r="E58" s="149"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="149"/>
+      <c r="I58" s="149"/>
+      <c r="J58" s="149"/>
+      <c r="K58" s="149"/>
+      <c r="L58" s="149"/>
+      <c r="M58" s="149"/>
+      <c r="N58" s="149"/>
+      <c r="O58" s="149"/>
+      <c r="P58" s="149"/>
       <c r="T58" s="22"/>
     </row>
     <row r="59" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A59" s="124"/>
-      <c r="B59" s="124"/>
-      <c r="C59" s="124"/>
-      <c r="D59" s="124"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="124"/>
-      <c r="G59" s="124"/>
-      <c r="H59" s="124"/>
-      <c r="I59" s="124"/>
-      <c r="J59" s="124"/>
-      <c r="K59" s="124"/>
-      <c r="L59" s="124"/>
-      <c r="M59" s="124"/>
-      <c r="N59" s="124"/>
-      <c r="O59" s="124"/>
-      <c r="P59" s="124"/>
+      <c r="A59" s="145"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
+      <c r="G59" s="145"/>
+      <c r="H59" s="145"/>
+      <c r="I59" s="145"/>
+      <c r="J59" s="145"/>
+      <c r="K59" s="145"/>
+      <c r="L59" s="145"/>
+      <c r="M59" s="145"/>
+      <c r="N59" s="145"/>
+      <c r="O59" s="145"/>
+      <c r="P59" s="145"/>
       <c r="T59" s="22"/>
     </row>
     <row r="60" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A60" s="119" t="s">
+      <c r="A60" s="140" t="s">
         <v>280</v>
       </c>
-      <c r="B60" s="119"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="119"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="119"/>
-      <c r="G60" s="119"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="119"/>
-      <c r="J60" s="119"/>
-      <c r="K60" s="119"/>
-      <c r="L60" s="119"/>
-      <c r="M60" s="119"/>
-      <c r="N60" s="119"/>
-      <c r="O60" s="119"/>
-      <c r="P60" s="119"/>
+      <c r="B60" s="140"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="140"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="140"/>
+      <c r="K60" s="140"/>
+      <c r="L60" s="140"/>
+      <c r="M60" s="140"/>
+      <c r="N60" s="140"/>
+      <c r="O60" s="140"/>
+      <c r="P60" s="140"/>
       <c r="T60" s="22"/>
     </row>
     <row r="61" spans="1:20" s="23" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A61" s="119" t="s">
+      <c r="A61" s="140" t="s">
         <v>279</v>
       </c>
-      <c r="B61" s="119"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="119"/>
-      <c r="G61" s="119"/>
-      <c r="H61" s="119"/>
-      <c r="I61" s="119"/>
-      <c r="J61" s="119"/>
-      <c r="K61" s="119"/>
-      <c r="L61" s="119"/>
-      <c r="M61" s="119"/>
-      <c r="N61" s="119"/>
-      <c r="O61" s="119"/>
-      <c r="P61" s="119"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="140"/>
+      <c r="G61" s="140"/>
+      <c r="H61" s="140"/>
+      <c r="I61" s="140"/>
+      <c r="J61" s="140"/>
+      <c r="K61" s="140"/>
+      <c r="L61" s="140"/>
+      <c r="M61" s="140"/>
+      <c r="N61" s="140"/>
+      <c r="O61" s="140"/>
+      <c r="P61" s="140"/>
       <c r="T61" s="24"/>
     </row>
     <row r="62" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A62" s="108" t="s">
+      <c r="A62" s="129" t="s">
         <v>278</v>
       </c>
-      <c r="B62" s="108"/>
-      <c r="C62" s="108"/>
-      <c r="D62" s="108"/>
-      <c r="E62" s="108"/>
-      <c r="F62" s="108"/>
-      <c r="G62" s="108"/>
-      <c r="H62" s="108"/>
-      <c r="I62" s="108"/>
-      <c r="J62" s="108"/>
-      <c r="K62" s="108"/>
-      <c r="L62" s="108"/>
-      <c r="M62" s="108"/>
-      <c r="N62" s="108"/>
-      <c r="O62" s="108"/>
-      <c r="P62" s="108"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="129"/>
+      <c r="F62" s="129"/>
+      <c r="G62" s="129"/>
+      <c r="H62" s="129"/>
+      <c r="I62" s="129"/>
+      <c r="J62" s="129"/>
+      <c r="K62" s="129"/>
+      <c r="L62" s="129"/>
+      <c r="M62" s="129"/>
+      <c r="N62" s="129"/>
+      <c r="O62" s="129"/>
+      <c r="P62" s="129"/>
       <c r="T62" s="22"/>
     </row>
     <row r="63" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A63" s="120" t="s">
+      <c r="A63" s="141" t="s">
         <v>277</v>
       </c>
-      <c r="B63" s="120"/>
-      <c r="C63" s="120"/>
-      <c r="D63" s="120"/>
-      <c r="E63" s="120"/>
-      <c r="F63" s="120"/>
-      <c r="G63" s="120"/>
-      <c r="H63" s="120"/>
-      <c r="I63" s="120"/>
-      <c r="J63" s="120"/>
-      <c r="K63" s="120"/>
-      <c r="L63" s="120"/>
-      <c r="M63" s="120"/>
-      <c r="N63" s="120"/>
-      <c r="O63" s="120"/>
-      <c r="P63" s="120"/>
+      <c r="B63" s="141"/>
+      <c r="C63" s="141"/>
+      <c r="D63" s="141"/>
+      <c r="E63" s="141"/>
+      <c r="F63" s="141"/>
+      <c r="G63" s="141"/>
+      <c r="H63" s="141"/>
+      <c r="I63" s="141"/>
+      <c r="J63" s="141"/>
+      <c r="K63" s="141"/>
+      <c r="L63" s="141"/>
+      <c r="M63" s="141"/>
+      <c r="N63" s="141"/>
+      <c r="O63" s="141"/>
+      <c r="P63" s="141"/>
       <c r="T63" s="22"/>
     </row>
     <row r="64" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A64" s="109" t="s">
+      <c r="A64" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="B64" s="109"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="109"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="109"/>
-      <c r="G64" s="109"/>
-      <c r="H64" s="109"/>
-      <c r="I64" s="109"/>
-      <c r="J64" s="109"/>
-      <c r="K64" s="109"/>
-      <c r="L64" s="109"/>
-      <c r="M64" s="109"/>
-      <c r="N64" s="109"/>
-      <c r="O64" s="109"/>
-      <c r="P64" s="109"/>
+      <c r="B64" s="130"/>
+      <c r="C64" s="130"/>
+      <c r="D64" s="130"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="130"/>
+      <c r="G64" s="130"/>
+      <c r="H64" s="130"/>
+      <c r="I64" s="130"/>
+      <c r="J64" s="130"/>
+      <c r="K64" s="130"/>
+      <c r="L64" s="130"/>
+      <c r="M64" s="130"/>
+      <c r="N64" s="130"/>
+      <c r="O64" s="130"/>
+      <c r="P64" s="130"/>
       <c r="T64" s="22"/>
     </row>
     <row r="65" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A65" s="109" t="s">
+      <c r="A65" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="B65" s="109"/>
-      <c r="C65" s="109"/>
-      <c r="D65" s="109"/>
-      <c r="E65" s="109"/>
-      <c r="F65" s="109"/>
-      <c r="G65" s="109"/>
-      <c r="H65" s="109"/>
-      <c r="I65" s="109"/>
-      <c r="J65" s="109"/>
-      <c r="K65" s="109"/>
-      <c r="L65" s="109"/>
-      <c r="M65" s="109"/>
-      <c r="N65" s="109"/>
-      <c r="O65" s="109"/>
-      <c r="P65" s="109"/>
+      <c r="B65" s="130"/>
+      <c r="C65" s="130"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="130"/>
+      <c r="G65" s="130"/>
+      <c r="H65" s="130"/>
+      <c r="I65" s="130"/>
+      <c r="J65" s="130"/>
+      <c r="K65" s="130"/>
+      <c r="L65" s="130"/>
+      <c r="M65" s="130"/>
+      <c r="N65" s="130"/>
+      <c r="O65" s="130"/>
+      <c r="P65" s="130"/>
       <c r="T65" s="22"/>
     </row>
     <row r="66" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A66" s="109" t="s">
+      <c r="A66" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="B66" s="109"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="109"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="109"/>
-      <c r="G66" s="109"/>
-      <c r="H66" s="109"/>
-      <c r="I66" s="109"/>
-      <c r="J66" s="109"/>
-      <c r="K66" s="109"/>
-      <c r="L66" s="109"/>
-      <c r="M66" s="109"/>
-      <c r="N66" s="109"/>
-      <c r="O66" s="109"/>
-      <c r="P66" s="109"/>
+      <c r="B66" s="130"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="130"/>
+      <c r="G66" s="130"/>
+      <c r="H66" s="130"/>
+      <c r="I66" s="130"/>
+      <c r="J66" s="130"/>
+      <c r="K66" s="130"/>
+      <c r="L66" s="130"/>
+      <c r="M66" s="130"/>
+      <c r="N66" s="130"/>
+      <c r="O66" s="130"/>
+      <c r="P66" s="130"/>
       <c r="T66" s="22"/>
     </row>
     <row r="67" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A67" s="109" t="s">
+      <c r="A67" s="130" t="s">
         <v>273</v>
       </c>
-      <c r="B67" s="109"/>
-      <c r="C67" s="109"/>
-      <c r="D67" s="109"/>
-      <c r="E67" s="109"/>
-      <c r="F67" s="109"/>
-      <c r="G67" s="109"/>
-      <c r="H67" s="109"/>
-      <c r="I67" s="109"/>
-      <c r="J67" s="109"/>
-      <c r="K67" s="109"/>
-      <c r="L67" s="109"/>
-      <c r="M67" s="109"/>
-      <c r="N67" s="109"/>
-      <c r="O67" s="109"/>
-      <c r="P67" s="109"/>
+      <c r="B67" s="130"/>
+      <c r="C67" s="130"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="130"/>
+      <c r="G67" s="130"/>
+      <c r="H67" s="130"/>
+      <c r="I67" s="130"/>
+      <c r="J67" s="130"/>
+      <c r="K67" s="130"/>
+      <c r="L67" s="130"/>
+      <c r="M67" s="130"/>
+      <c r="N67" s="130"/>
+      <c r="O67" s="130"/>
+      <c r="P67" s="130"/>
       <c r="T67" s="22"/>
     </row>
     <row r="68" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A68" s="108" t="s">
+      <c r="A68" s="129" t="s">
         <v>272</v>
       </c>
-      <c r="B68" s="108"/>
-      <c r="C68" s="108"/>
-      <c r="D68" s="108"/>
-      <c r="E68" s="108"/>
-      <c r="F68" s="108"/>
-      <c r="G68" s="108"/>
-      <c r="H68" s="108"/>
-      <c r="I68" s="108"/>
-      <c r="J68" s="108"/>
-      <c r="K68" s="108"/>
-      <c r="L68" s="108"/>
-      <c r="M68" s="108"/>
-      <c r="N68" s="108"/>
-      <c r="O68" s="108"/>
-      <c r="P68" s="108"/>
+      <c r="B68" s="129"/>
+      <c r="C68" s="129"/>
+      <c r="D68" s="129"/>
+      <c r="E68" s="129"/>
+      <c r="F68" s="129"/>
+      <c r="G68" s="129"/>
+      <c r="H68" s="129"/>
+      <c r="I68" s="129"/>
+      <c r="J68" s="129"/>
+      <c r="K68" s="129"/>
+      <c r="L68" s="129"/>
+      <c r="M68" s="129"/>
+      <c r="N68" s="129"/>
+      <c r="O68" s="129"/>
+      <c r="P68" s="129"/>
       <c r="T68" s="22"/>
     </row>
     <row r="69" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="130" t="s">
         <v>271</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
-      <c r="G69" s="109"/>
-      <c r="H69" s="109"/>
-      <c r="I69" s="109"/>
-      <c r="J69" s="109"/>
-      <c r="K69" s="109"/>
-      <c r="L69" s="109"/>
-      <c r="M69" s="109"/>
-      <c r="N69" s="109"/>
-      <c r="O69" s="109"/>
-      <c r="P69" s="109"/>
+      <c r="B69" s="130"/>
+      <c r="C69" s="130"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="130"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="130"/>
+      <c r="I69" s="130"/>
+      <c r="J69" s="130"/>
+      <c r="K69" s="130"/>
+      <c r="L69" s="130"/>
+      <c r="M69" s="130"/>
+      <c r="N69" s="130"/>
+      <c r="O69" s="130"/>
+      <c r="P69" s="130"/>
       <c r="T69" s="22"/>
     </row>
     <row r="70" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A70" s="109" t="s">
+      <c r="A70" s="130" t="s">
         <v>270</v>
       </c>
-      <c r="B70" s="109"/>
-      <c r="C70" s="109"/>
-      <c r="D70" s="109"/>
-      <c r="E70" s="109"/>
-      <c r="F70" s="109"/>
-      <c r="G70" s="109"/>
-      <c r="H70" s="109"/>
-      <c r="I70" s="109"/>
-      <c r="J70" s="109"/>
-      <c r="K70" s="109"/>
-      <c r="L70" s="109"/>
-      <c r="M70" s="109"/>
-      <c r="N70" s="109"/>
-      <c r="O70" s="109"/>
-      <c r="P70" s="109"/>
+      <c r="B70" s="130"/>
+      <c r="C70" s="130"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="130"/>
+      <c r="G70" s="130"/>
+      <c r="H70" s="130"/>
+      <c r="I70" s="130"/>
+      <c r="J70" s="130"/>
+      <c r="K70" s="130"/>
+      <c r="L70" s="130"/>
+      <c r="M70" s="130"/>
+      <c r="N70" s="130"/>
+      <c r="O70" s="130"/>
+      <c r="P70" s="130"/>
       <c r="T70" s="22"/>
     </row>
     <row r="71" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A71" s="109" t="s">
+      <c r="A71" s="130" t="s">
         <v>269</v>
       </c>
-      <c r="B71" s="109"/>
-      <c r="C71" s="109"/>
-      <c r="D71" s="109"/>
-      <c r="E71" s="109"/>
-      <c r="F71" s="109"/>
-      <c r="G71" s="109"/>
-      <c r="H71" s="109"/>
-      <c r="I71" s="109"/>
-      <c r="J71" s="109"/>
-      <c r="K71" s="109"/>
-      <c r="L71" s="109"/>
-      <c r="M71" s="109"/>
-      <c r="N71" s="109"/>
-      <c r="O71" s="109"/>
-      <c r="P71" s="109"/>
+      <c r="B71" s="130"/>
+      <c r="C71" s="130"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="130"/>
+      <c r="G71" s="130"/>
+      <c r="H71" s="130"/>
+      <c r="I71" s="130"/>
+      <c r="J71" s="130"/>
+      <c r="K71" s="130"/>
+      <c r="L71" s="130"/>
+      <c r="M71" s="130"/>
+      <c r="N71" s="130"/>
+      <c r="O71" s="130"/>
+      <c r="P71" s="130"/>
       <c r="T71" s="22"/>
     </row>
     <row r="72" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A72" s="109" t="s">
+      <c r="A72" s="130" t="s">
         <v>268</v>
       </c>
-      <c r="B72" s="109"/>
-      <c r="C72" s="109"/>
-      <c r="D72" s="109"/>
-      <c r="E72" s="109"/>
-      <c r="F72" s="109"/>
-      <c r="G72" s="109"/>
-      <c r="H72" s="109"/>
-      <c r="I72" s="109"/>
-      <c r="J72" s="109"/>
-      <c r="K72" s="109"/>
-      <c r="L72" s="109"/>
-      <c r="M72" s="109"/>
-      <c r="N72" s="109"/>
-      <c r="O72" s="109"/>
-      <c r="P72" s="109"/>
+      <c r="B72" s="130"/>
+      <c r="C72" s="130"/>
+      <c r="D72" s="130"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="130"/>
+      <c r="G72" s="130"/>
+      <c r="H72" s="130"/>
+      <c r="I72" s="130"/>
+      <c r="J72" s="130"/>
+      <c r="K72" s="130"/>
+      <c r="L72" s="130"/>
+      <c r="M72" s="130"/>
+      <c r="N72" s="130"/>
+      <c r="O72" s="130"/>
+      <c r="P72" s="130"/>
       <c r="T72" s="22"/>
     </row>
     <row r="73" spans="1:20" s="21" customFormat="1" ht="15" customHeight="1">
-      <c r="A73" s="109" t="s">
+      <c r="A73" s="130" t="s">
         <v>267</v>
       </c>
-      <c r="B73" s="109"/>
-      <c r="C73" s="109"/>
-      <c r="D73" s="109"/>
-      <c r="E73" s="109"/>
-      <c r="F73" s="109"/>
-      <c r="G73" s="109"/>
-      <c r="H73" s="109"/>
-      <c r="I73" s="109"/>
-      <c r="J73" s="109"/>
-      <c r="K73" s="109"/>
-      <c r="L73" s="109"/>
-      <c r="M73" s="109"/>
-      <c r="N73" s="109"/>
-      <c r="O73" s="109"/>
-      <c r="P73" s="109"/>
+      <c r="B73" s="130"/>
+      <c r="C73" s="130"/>
+      <c r="D73" s="130"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="130"/>
+      <c r="G73" s="130"/>
+      <c r="H73" s="130"/>
+      <c r="I73" s="130"/>
+      <c r="J73" s="130"/>
+      <c r="K73" s="130"/>
+      <c r="L73" s="130"/>
+      <c r="M73" s="130"/>
+      <c r="N73" s="130"/>
+      <c r="O73" s="130"/>
+      <c r="P73" s="130"/>
       <c r="T73" s="22"/>
     </row>
     <row r="74" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A74" s="111" t="s">
+      <c r="A74" s="132" t="s">
         <v>266</v>
       </c>
-      <c r="B74" s="111"/>
-      <c r="C74" s="111"/>
-      <c r="D74" s="111"/>
-      <c r="E74" s="111"/>
-      <c r="F74" s="111"/>
-      <c r="G74" s="111"/>
-      <c r="H74" s="111"/>
-      <c r="I74" s="111"/>
-      <c r="J74" s="111"/>
-      <c r="K74" s="111"/>
-      <c r="L74" s="111"/>
-      <c r="M74" s="111"/>
-      <c r="N74" s="111"/>
-      <c r="O74" s="111"/>
-      <c r="P74" s="111"/>
+      <c r="B74" s="132"/>
+      <c r="C74" s="132"/>
+      <c r="D74" s="132"/>
+      <c r="E74" s="132"/>
+      <c r="F74" s="132"/>
+      <c r="G74" s="132"/>
+      <c r="H74" s="132"/>
+      <c r="I74" s="132"/>
+      <c r="J74" s="132"/>
+      <c r="K74" s="132"/>
+      <c r="L74" s="132"/>
+      <c r="M74" s="132"/>
+      <c r="N74" s="132"/>
+      <c r="O74" s="132"/>
+      <c r="P74" s="132"/>
       <c r="T74" s="22"/>
     </row>
     <row r="75" spans="1:20" s="23" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A75" s="108" t="s">
+      <c r="A75" s="129" t="s">
         <v>265</v>
       </c>
-      <c r="B75" s="108"/>
-      <c r="C75" s="108"/>
-      <c r="D75" s="108"/>
-      <c r="E75" s="108"/>
-      <c r="F75" s="108"/>
-      <c r="G75" s="108"/>
-      <c r="H75" s="108"/>
-      <c r="I75" s="108"/>
-      <c r="J75" s="108"/>
-      <c r="K75" s="108"/>
-      <c r="L75" s="108"/>
-      <c r="M75" s="108"/>
-      <c r="N75" s="108"/>
-      <c r="O75" s="108"/>
-      <c r="P75" s="108"/>
+      <c r="B75" s="129"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="129"/>
+      <c r="E75" s="129"/>
+      <c r="F75" s="129"/>
+      <c r="G75" s="129"/>
+      <c r="H75" s="129"/>
+      <c r="I75" s="129"/>
+      <c r="J75" s="129"/>
+      <c r="K75" s="129"/>
+      <c r="L75" s="129"/>
+      <c r="M75" s="129"/>
+      <c r="N75" s="129"/>
+      <c r="O75" s="129"/>
+      <c r="P75" s="129"/>
       <c r="T75" s="24"/>
     </row>
     <row r="76" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A76" s="115" t="s">
+      <c r="A76" s="136" t="s">
         <v>264</v>
       </c>
-      <c r="B76" s="115"/>
-      <c r="C76" s="115"/>
-      <c r="D76" s="115"/>
-      <c r="E76" s="115"/>
-      <c r="F76" s="115"/>
-      <c r="G76" s="115"/>
-      <c r="H76" s="115"/>
-      <c r="I76" s="115"/>
-      <c r="J76" s="115"/>
-      <c r="K76" s="115"/>
-      <c r="L76" s="115"/>
-      <c r="M76" s="115"/>
-      <c r="N76" s="115"/>
-      <c r="O76" s="115"/>
-      <c r="P76" s="115"/>
+      <c r="B76" s="136"/>
+      <c r="C76" s="136"/>
+      <c r="D76" s="136"/>
+      <c r="E76" s="136"/>
+      <c r="F76" s="136"/>
+      <c r="G76" s="136"/>
+      <c r="H76" s="136"/>
+      <c r="I76" s="136"/>
+      <c r="J76" s="136"/>
+      <c r="K76" s="136"/>
+      <c r="L76" s="136"/>
+      <c r="M76" s="136"/>
+      <c r="N76" s="136"/>
+      <c r="O76" s="136"/>
+      <c r="P76" s="136"/>
       <c r="T76" s="22"/>
     </row>
     <row r="77" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A77" s="114" t="s">
+      <c r="A77" s="135" t="s">
         <v>257</v>
       </c>
-      <c r="B77" s="114"/>
-      <c r="C77" s="114"/>
-      <c r="D77" s="114"/>
-      <c r="E77" s="114"/>
-      <c r="F77" s="114"/>
-      <c r="G77" s="114"/>
-      <c r="H77" s="114"/>
-      <c r="I77" s="114"/>
-      <c r="J77" s="114"/>
-      <c r="K77" s="114"/>
-      <c r="L77" s="114"/>
-      <c r="M77" s="114"/>
-      <c r="N77" s="114"/>
-      <c r="O77" s="114"/>
-      <c r="P77" s="114"/>
+      <c r="B77" s="135"/>
+      <c r="C77" s="135"/>
+      <c r="D77" s="135"/>
+      <c r="E77" s="135"/>
+      <c r="F77" s="135"/>
+      <c r="G77" s="135"/>
+      <c r="H77" s="135"/>
+      <c r="I77" s="135"/>
+      <c r="J77" s="135"/>
+      <c r="K77" s="135"/>
+      <c r="L77" s="135"/>
+      <c r="M77" s="135"/>
+      <c r="N77" s="135"/>
+      <c r="O77" s="135"/>
+      <c r="P77" s="135"/>
       <c r="T77" s="22"/>
     </row>
     <row r="78" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="116" t="s">
+      <c r="A78" s="137" t="s">
         <v>263</v>
       </c>
-      <c r="B78" s="116"/>
-      <c r="C78" s="116"/>
-      <c r="D78" s="116"/>
-      <c r="E78" s="116"/>
-      <c r="F78" s="116"/>
-      <c r="G78" s="116"/>
-      <c r="H78" s="116"/>
-      <c r="I78" s="116"/>
-      <c r="J78" s="116"/>
-      <c r="K78" s="116"/>
-      <c r="L78" s="116"/>
-      <c r="M78" s="116"/>
-      <c r="N78" s="116"/>
-      <c r="O78" s="116"/>
-      <c r="P78" s="116"/>
+      <c r="B78" s="137"/>
+      <c r="C78" s="137"/>
+      <c r="D78" s="137"/>
+      <c r="E78" s="137"/>
+      <c r="F78" s="137"/>
+      <c r="G78" s="137"/>
+      <c r="H78" s="137"/>
+      <c r="I78" s="137"/>
+      <c r="J78" s="137"/>
+      <c r="K78" s="137"/>
+      <c r="L78" s="137"/>
+      <c r="M78" s="137"/>
+      <c r="N78" s="137"/>
+      <c r="O78" s="137"/>
+      <c r="P78" s="137"/>
       <c r="T78" s="22"/>
     </row>
     <row r="79" spans="1:20" s="21" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A79" s="114" t="s">
+      <c r="A79" s="135" t="s">
         <v>262</v>
       </c>
-      <c r="B79" s="114"/>
-      <c r="C79" s="114"/>
-      <c r="D79" s="114"/>
-      <c r="E79" s="114"/>
-      <c r="F79" s="114"/>
-      <c r="G79" s="114"/>
-      <c r="H79" s="114"/>
-      <c r="I79" s="114"/>
-      <c r="J79" s="114"/>
-      <c r="K79" s="114"/>
-      <c r="L79" s="114"/>
-      <c r="M79" s="114"/>
-      <c r="N79" s="114"/>
-      <c r="O79" s="114"/>
-      <c r="P79" s="114"/>
+      <c r="B79" s="135"/>
+      <c r="C79" s="135"/>
+      <c r="D79" s="135"/>
+      <c r="E79" s="135"/>
+      <c r="F79" s="135"/>
+      <c r="G79" s="135"/>
+      <c r="H79" s="135"/>
+      <c r="I79" s="135"/>
+      <c r="J79" s="135"/>
+      <c r="K79" s="135"/>
+      <c r="L79" s="135"/>
+      <c r="M79" s="135"/>
+      <c r="N79" s="135"/>
+      <c r="O79" s="135"/>
+      <c r="P79" s="135"/>
       <c r="T79" s="22"/>
     </row>
     <row r="80" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A80" s="108" t="s">
+      <c r="A80" s="129" t="s">
         <v>261</v>
       </c>
-      <c r="B80" s="108"/>
-      <c r="C80" s="108"/>
-      <c r="D80" s="108"/>
-      <c r="E80" s="108"/>
-      <c r="F80" s="108"/>
-      <c r="G80" s="108"/>
-      <c r="H80" s="108"/>
-      <c r="I80" s="108"/>
-      <c r="J80" s="108"/>
-      <c r="K80" s="108"/>
-      <c r="L80" s="108"/>
-      <c r="M80" s="108"/>
-      <c r="N80" s="108"/>
-      <c r="O80" s="108"/>
-      <c r="P80" s="108"/>
+      <c r="B80" s="129"/>
+      <c r="C80" s="129"/>
+      <c r="D80" s="129"/>
+      <c r="E80" s="129"/>
+      <c r="F80" s="129"/>
+      <c r="G80" s="129"/>
+      <c r="H80" s="129"/>
+      <c r="I80" s="129"/>
+      <c r="J80" s="129"/>
+      <c r="K80" s="129"/>
+      <c r="L80" s="129"/>
+      <c r="M80" s="129"/>
+      <c r="N80" s="129"/>
+      <c r="O80" s="129"/>
+      <c r="P80" s="129"/>
       <c r="T80" s="22"/>
     </row>
     <row r="81" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A81" s="115" t="s">
+      <c r="A81" s="136" t="s">
         <v>260</v>
       </c>
-      <c r="B81" s="115"/>
-      <c r="C81" s="115"/>
-      <c r="D81" s="115"/>
-      <c r="E81" s="115"/>
-      <c r="F81" s="115"/>
-      <c r="G81" s="115"/>
-      <c r="H81" s="115"/>
-      <c r="I81" s="115"/>
-      <c r="J81" s="115"/>
-      <c r="K81" s="115"/>
-      <c r="L81" s="115"/>
-      <c r="M81" s="115"/>
-      <c r="N81" s="115"/>
-      <c r="O81" s="115"/>
-      <c r="P81" s="115"/>
+      <c r="B81" s="136"/>
+      <c r="C81" s="136"/>
+      <c r="D81" s="136"/>
+      <c r="E81" s="136"/>
+      <c r="F81" s="136"/>
+      <c r="G81" s="136"/>
+      <c r="H81" s="136"/>
+      <c r="I81" s="136"/>
+      <c r="J81" s="136"/>
+      <c r="K81" s="136"/>
+      <c r="L81" s="136"/>
+      <c r="M81" s="136"/>
+      <c r="N81" s="136"/>
+      <c r="O81" s="136"/>
+      <c r="P81" s="136"/>
       <c r="T81" s="22"/>
     </row>
     <row r="82" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A82" s="114" t="s">
+      <c r="A82" s="135" t="s">
         <v>252</v>
       </c>
-      <c r="B82" s="114"/>
-      <c r="C82" s="114"/>
-      <c r="D82" s="114"/>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="114"/>
-      <c r="H82" s="114"/>
-      <c r="I82" s="114"/>
-      <c r="J82" s="114"/>
-      <c r="K82" s="114"/>
-      <c r="L82" s="114"/>
-      <c r="M82" s="114"/>
-      <c r="N82" s="114"/>
-      <c r="O82" s="114"/>
-      <c r="P82" s="114"/>
+      <c r="B82" s="135"/>
+      <c r="C82" s="135"/>
+      <c r="D82" s="135"/>
+      <c r="E82" s="135"/>
+      <c r="F82" s="135"/>
+      <c r="G82" s="135"/>
+      <c r="H82" s="135"/>
+      <c r="I82" s="135"/>
+      <c r="J82" s="135"/>
+      <c r="K82" s="135"/>
+      <c r="L82" s="135"/>
+      <c r="M82" s="135"/>
+      <c r="N82" s="135"/>
+      <c r="O82" s="135"/>
+      <c r="P82" s="135"/>
       <c r="T82" s="22"/>
     </row>
     <row r="83" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A83" s="108" t="s">
+      <c r="A83" s="129" t="s">
         <v>259</v>
       </c>
-      <c r="B83" s="108"/>
-      <c r="C83" s="108"/>
-      <c r="D83" s="108"/>
-      <c r="E83" s="108"/>
-      <c r="F83" s="108"/>
-      <c r="G83" s="108"/>
-      <c r="H83" s="108"/>
-      <c r="I83" s="108"/>
-      <c r="J83" s="108"/>
-      <c r="K83" s="108"/>
-      <c r="L83" s="108"/>
-      <c r="M83" s="108"/>
-      <c r="N83" s="108"/>
-      <c r="O83" s="108"/>
-      <c r="P83" s="108"/>
+      <c r="B83" s="129"/>
+      <c r="C83" s="129"/>
+      <c r="D83" s="129"/>
+      <c r="E83" s="129"/>
+      <c r="F83" s="129"/>
+      <c r="G83" s="129"/>
+      <c r="H83" s="129"/>
+      <c r="I83" s="129"/>
+      <c r="J83" s="129"/>
+      <c r="K83" s="129"/>
+      <c r="L83" s="129"/>
+      <c r="M83" s="129"/>
+      <c r="N83" s="129"/>
+      <c r="O83" s="129"/>
+      <c r="P83" s="129"/>
       <c r="T83" s="22"/>
     </row>
     <row r="84" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A84" s="115" t="s">
+      <c r="A84" s="136" t="s">
         <v>258</v>
       </c>
-      <c r="B84" s="115"/>
-      <c r="C84" s="115"/>
-      <c r="D84" s="115"/>
-      <c r="E84" s="115"/>
-      <c r="F84" s="115"/>
-      <c r="G84" s="115"/>
-      <c r="H84" s="115"/>
-      <c r="I84" s="115"/>
-      <c r="J84" s="115"/>
-      <c r="K84" s="115"/>
-      <c r="L84" s="115"/>
-      <c r="M84" s="115"/>
-      <c r="N84" s="115"/>
-      <c r="O84" s="115"/>
-      <c r="P84" s="115"/>
+      <c r="B84" s="136"/>
+      <c r="C84" s="136"/>
+      <c r="D84" s="136"/>
+      <c r="E84" s="136"/>
+      <c r="F84" s="136"/>
+      <c r="G84" s="136"/>
+      <c r="H84" s="136"/>
+      <c r="I84" s="136"/>
+      <c r="J84" s="136"/>
+      <c r="K84" s="136"/>
+      <c r="L84" s="136"/>
+      <c r="M84" s="136"/>
+      <c r="N84" s="136"/>
+      <c r="O84" s="136"/>
+      <c r="P84" s="136"/>
       <c r="T84" s="22"/>
     </row>
     <row r="85" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A85" s="114" t="s">
+      <c r="A85" s="135" t="s">
         <v>257</v>
       </c>
-      <c r="B85" s="114"/>
-      <c r="C85" s="114"/>
-      <c r="D85" s="114"/>
-      <c r="E85" s="114"/>
-      <c r="F85" s="114"/>
-      <c r="G85" s="114"/>
-      <c r="H85" s="114"/>
-      <c r="I85" s="114"/>
-      <c r="J85" s="114"/>
-      <c r="K85" s="114"/>
-      <c r="L85" s="114"/>
-      <c r="M85" s="114"/>
-      <c r="N85" s="114"/>
-      <c r="O85" s="114"/>
-      <c r="P85" s="114"/>
+      <c r="B85" s="135"/>
+      <c r="C85" s="135"/>
+      <c r="D85" s="135"/>
+      <c r="E85" s="135"/>
+      <c r="F85" s="135"/>
+      <c r="G85" s="135"/>
+      <c r="H85" s="135"/>
+      <c r="I85" s="135"/>
+      <c r="J85" s="135"/>
+      <c r="K85" s="135"/>
+      <c r="L85" s="135"/>
+      <c r="M85" s="135"/>
+      <c r="N85" s="135"/>
+      <c r="O85" s="135"/>
+      <c r="P85" s="135"/>
       <c r="T85" s="22"/>
     </row>
     <row r="86" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A86" s="116" t="s">
+      <c r="A86" s="137" t="s">
         <v>256</v>
       </c>
-      <c r="B86" s="116"/>
-      <c r="C86" s="116"/>
-      <c r="D86" s="116"/>
-      <c r="E86" s="116"/>
-      <c r="F86" s="116"/>
-      <c r="G86" s="116"/>
-      <c r="H86" s="116"/>
-      <c r="I86" s="116"/>
-      <c r="J86" s="116"/>
-      <c r="K86" s="116"/>
-      <c r="L86" s="116"/>
-      <c r="M86" s="116"/>
-      <c r="N86" s="116"/>
-      <c r="O86" s="116"/>
-      <c r="P86" s="116"/>
+      <c r="B86" s="137"/>
+      <c r="C86" s="137"/>
+      <c r="D86" s="137"/>
+      <c r="E86" s="137"/>
+      <c r="F86" s="137"/>
+      <c r="G86" s="137"/>
+      <c r="H86" s="137"/>
+      <c r="I86" s="137"/>
+      <c r="J86" s="137"/>
+      <c r="K86" s="137"/>
+      <c r="L86" s="137"/>
+      <c r="M86" s="137"/>
+      <c r="N86" s="137"/>
+      <c r="O86" s="137"/>
+      <c r="P86" s="137"/>
       <c r="T86" s="22"/>
     </row>
     <row r="87" spans="1:20" s="21" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A87" s="114" t="s">
+      <c r="A87" s="135" t="s">
         <v>255</v>
       </c>
-      <c r="B87" s="114"/>
-      <c r="C87" s="114"/>
-      <c r="D87" s="114"/>
-      <c r="E87" s="114"/>
-      <c r="F87" s="114"/>
-      <c r="G87" s="114"/>
-      <c r="H87" s="114"/>
-      <c r="I87" s="114"/>
-      <c r="J87" s="114"/>
-      <c r="K87" s="114"/>
-      <c r="L87" s="114"/>
-      <c r="M87" s="114"/>
-      <c r="N87" s="114"/>
-      <c r="O87" s="114"/>
-      <c r="P87" s="114"/>
+      <c r="B87" s="135"/>
+      <c r="C87" s="135"/>
+      <c r="D87" s="135"/>
+      <c r="E87" s="135"/>
+      <c r="F87" s="135"/>
+      <c r="G87" s="135"/>
+      <c r="H87" s="135"/>
+      <c r="I87" s="135"/>
+      <c r="J87" s="135"/>
+      <c r="K87" s="135"/>
+      <c r="L87" s="135"/>
+      <c r="M87" s="135"/>
+      <c r="N87" s="135"/>
+      <c r="O87" s="135"/>
+      <c r="P87" s="135"/>
       <c r="T87" s="22"/>
     </row>
     <row r="88" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A88" s="108" t="s">
+      <c r="A88" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="B88" s="108"/>
-      <c r="C88" s="108"/>
-      <c r="D88" s="108"/>
-      <c r="E88" s="108"/>
-      <c r="F88" s="108"/>
-      <c r="G88" s="108"/>
-      <c r="H88" s="108"/>
-      <c r="I88" s="108"/>
-      <c r="J88" s="108"/>
-      <c r="K88" s="108"/>
-      <c r="L88" s="108"/>
-      <c r="M88" s="108"/>
-      <c r="N88" s="108"/>
-      <c r="O88" s="108"/>
-      <c r="P88" s="108"/>
+      <c r="B88" s="129"/>
+      <c r="C88" s="129"/>
+      <c r="D88" s="129"/>
+      <c r="E88" s="129"/>
+      <c r="F88" s="129"/>
+      <c r="G88" s="129"/>
+      <c r="H88" s="129"/>
+      <c r="I88" s="129"/>
+      <c r="J88" s="129"/>
+      <c r="K88" s="129"/>
+      <c r="L88" s="129"/>
+      <c r="M88" s="129"/>
+      <c r="N88" s="129"/>
+      <c r="O88" s="129"/>
+      <c r="P88" s="129"/>
       <c r="T88" s="22"/>
     </row>
     <row r="89" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A89" s="115" t="s">
+      <c r="A89" s="136" t="s">
         <v>253</v>
       </c>
-      <c r="B89" s="115"/>
-      <c r="C89" s="115"/>
-      <c r="D89" s="115"/>
-      <c r="E89" s="115"/>
-      <c r="F89" s="115"/>
-      <c r="G89" s="115"/>
-      <c r="H89" s="115"/>
-      <c r="I89" s="115"/>
-      <c r="J89" s="115"/>
-      <c r="K89" s="115"/>
-      <c r="L89" s="115"/>
-      <c r="M89" s="115"/>
-      <c r="N89" s="115"/>
-      <c r="O89" s="115"/>
-      <c r="P89" s="115"/>
+      <c r="B89" s="136"/>
+      <c r="C89" s="136"/>
+      <c r="D89" s="136"/>
+      <c r="E89" s="136"/>
+      <c r="F89" s="136"/>
+      <c r="G89" s="136"/>
+      <c r="H89" s="136"/>
+      <c r="I89" s="136"/>
+      <c r="J89" s="136"/>
+      <c r="K89" s="136"/>
+      <c r="L89" s="136"/>
+      <c r="M89" s="136"/>
+      <c r="N89" s="136"/>
+      <c r="O89" s="136"/>
+      <c r="P89" s="136"/>
       <c r="T89" s="22"/>
     </row>
     <row r="90" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A90" s="114" t="s">
+      <c r="A90" s="135" t="s">
         <v>252</v>
       </c>
-      <c r="B90" s="114"/>
-      <c r="C90" s="114"/>
-      <c r="D90" s="114"/>
-      <c r="E90" s="114"/>
-      <c r="F90" s="114"/>
-      <c r="G90" s="114"/>
-      <c r="H90" s="114"/>
-      <c r="I90" s="114"/>
-      <c r="J90" s="114"/>
-      <c r="K90" s="114"/>
-      <c r="L90" s="114"/>
-      <c r="M90" s="114"/>
-      <c r="N90" s="114"/>
-      <c r="O90" s="114"/>
-      <c r="P90" s="114"/>
+      <c r="B90" s="135"/>
+      <c r="C90" s="135"/>
+      <c r="D90" s="135"/>
+      <c r="E90" s="135"/>
+      <c r="F90" s="135"/>
+      <c r="G90" s="135"/>
+      <c r="H90" s="135"/>
+      <c r="I90" s="135"/>
+      <c r="J90" s="135"/>
+      <c r="K90" s="135"/>
+      <c r="L90" s="135"/>
+      <c r="M90" s="135"/>
+      <c r="N90" s="135"/>
+      <c r="O90" s="135"/>
+      <c r="P90" s="135"/>
       <c r="T90" s="22"/>
     </row>
     <row r="91" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A91" s="111" t="s">
+      <c r="A91" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="B91" s="111"/>
-      <c r="C91" s="111"/>
-      <c r="D91" s="111"/>
-      <c r="E91" s="111"/>
-      <c r="F91" s="111"/>
-      <c r="G91" s="111"/>
-      <c r="H91" s="111"/>
-      <c r="I91" s="111"/>
-      <c r="J91" s="111"/>
-      <c r="K91" s="111"/>
-      <c r="L91" s="111"/>
-      <c r="M91" s="111"/>
-      <c r="N91" s="111"/>
-      <c r="O91" s="111"/>
-      <c r="P91" s="111"/>
+      <c r="B91" s="132"/>
+      <c r="C91" s="132"/>
+      <c r="D91" s="132"/>
+      <c r="E91" s="132"/>
+      <c r="F91" s="132"/>
+      <c r="G91" s="132"/>
+      <c r="H91" s="132"/>
+      <c r="I91" s="132"/>
+      <c r="J91" s="132"/>
+      <c r="K91" s="132"/>
+      <c r="L91" s="132"/>
+      <c r="M91" s="132"/>
+      <c r="N91" s="132"/>
+      <c r="O91" s="132"/>
+      <c r="P91" s="132"/>
       <c r="T91" s="22"/>
     </row>
     <row r="92" spans="1:20" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A92" s="109" t="s">
+      <c r="A92" s="130" t="s">
         <v>250</v>
       </c>
-      <c r="B92" s="109"/>
-      <c r="C92" s="109"/>
-      <c r="D92" s="109"/>
-      <c r="E92" s="109"/>
-      <c r="F92" s="109"/>
-      <c r="G92" s="109"/>
-      <c r="H92" s="109"/>
-      <c r="I92" s="109"/>
-      <c r="J92" s="109"/>
-      <c r="K92" s="109"/>
-      <c r="L92" s="109"/>
-      <c r="M92" s="109"/>
-      <c r="N92" s="109"/>
-      <c r="O92" s="109"/>
-      <c r="P92" s="109"/>
+      <c r="B92" s="130"/>
+      <c r="C92" s="130"/>
+      <c r="D92" s="130"/>
+      <c r="E92" s="130"/>
+      <c r="F92" s="130"/>
+      <c r="G92" s="130"/>
+      <c r="H92" s="130"/>
+      <c r="I92" s="130"/>
+      <c r="J92" s="130"/>
+      <c r="K92" s="130"/>
+      <c r="L92" s="130"/>
+      <c r="M92" s="130"/>
+      <c r="N92" s="130"/>
+      <c r="O92" s="130"/>
+      <c r="P92" s="130"/>
       <c r="T92" s="22"/>
     </row>
     <row r="93" spans="1:20" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A93" s="109" t="s">
+      <c r="A93" s="130" t="s">
         <v>249</v>
       </c>
-      <c r="B93" s="109"/>
-      <c r="C93" s="109"/>
-      <c r="D93" s="109"/>
-      <c r="E93" s="109"/>
-      <c r="F93" s="109"/>
-      <c r="G93" s="109"/>
-      <c r="H93" s="109"/>
-      <c r="I93" s="109"/>
-      <c r="J93" s="109"/>
-      <c r="K93" s="109"/>
-      <c r="L93" s="109"/>
-      <c r="M93" s="109"/>
-      <c r="N93" s="109"/>
-      <c r="O93" s="109"/>
-      <c r="P93" s="109"/>
+      <c r="B93" s="130"/>
+      <c r="C93" s="130"/>
+      <c r="D93" s="130"/>
+      <c r="E93" s="130"/>
+      <c r="F93" s="130"/>
+      <c r="G93" s="130"/>
+      <c r="H93" s="130"/>
+      <c r="I93" s="130"/>
+      <c r="J93" s="130"/>
+      <c r="K93" s="130"/>
+      <c r="L93" s="130"/>
+      <c r="M93" s="130"/>
+      <c r="N93" s="130"/>
+      <c r="O93" s="130"/>
+      <c r="P93" s="130"/>
       <c r="T93" s="22"/>
     </row>
     <row r="94" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A94" s="111" t="s">
+      <c r="A94" s="132" t="s">
         <v>248</v>
       </c>
-      <c r="B94" s="111"/>
-      <c r="C94" s="111"/>
-      <c r="D94" s="111"/>
-      <c r="E94" s="111"/>
-      <c r="F94" s="111"/>
-      <c r="G94" s="111"/>
-      <c r="H94" s="111"/>
-      <c r="I94" s="111"/>
-      <c r="J94" s="111"/>
-      <c r="K94" s="111"/>
-      <c r="L94" s="111"/>
-      <c r="M94" s="111"/>
-      <c r="N94" s="111"/>
-      <c r="O94" s="111"/>
-      <c r="P94" s="111"/>
+      <c r="B94" s="132"/>
+      <c r="C94" s="132"/>
+      <c r="D94" s="132"/>
+      <c r="E94" s="132"/>
+      <c r="F94" s="132"/>
+      <c r="G94" s="132"/>
+      <c r="H94" s="132"/>
+      <c r="I94" s="132"/>
+      <c r="J94" s="132"/>
+      <c r="K94" s="132"/>
+      <c r="L94" s="132"/>
+      <c r="M94" s="132"/>
+      <c r="N94" s="132"/>
+      <c r="O94" s="132"/>
+      <c r="P94" s="132"/>
       <c r="T94" s="22"/>
     </row>
     <row r="95" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A95" s="109" t="s">
+      <c r="A95" s="130" t="s">
         <v>247</v>
       </c>
-      <c r="B95" s="109"/>
-      <c r="C95" s="109"/>
-      <c r="D95" s="109"/>
-      <c r="E95" s="109"/>
-      <c r="F95" s="109"/>
-      <c r="G95" s="109"/>
-      <c r="H95" s="109"/>
-      <c r="I95" s="109"/>
-      <c r="J95" s="109"/>
-      <c r="K95" s="109"/>
-      <c r="L95" s="109"/>
-      <c r="M95" s="109"/>
-      <c r="N95" s="109"/>
-      <c r="O95" s="109"/>
-      <c r="P95" s="109"/>
+      <c r="B95" s="130"/>
+      <c r="C95" s="130"/>
+      <c r="D95" s="130"/>
+      <c r="E95" s="130"/>
+      <c r="F95" s="130"/>
+      <c r="G95" s="130"/>
+      <c r="H95" s="130"/>
+      <c r="I95" s="130"/>
+      <c r="J95" s="130"/>
+      <c r="K95" s="130"/>
+      <c r="L95" s="130"/>
+      <c r="M95" s="130"/>
+      <c r="N95" s="130"/>
+      <c r="O95" s="130"/>
+      <c r="P95" s="130"/>
       <c r="T95" s="22"/>
     </row>
     <row r="96" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A96" s="127" t="s">
+      <c r="A96" s="148" t="s">
         <v>246</v>
       </c>
-      <c r="B96" s="127"/>
-      <c r="C96" s="127"/>
-      <c r="D96" s="127"/>
-      <c r="E96" s="127"/>
-      <c r="F96" s="127"/>
-      <c r="G96" s="127"/>
-      <c r="H96" s="127"/>
-      <c r="I96" s="127"/>
-      <c r="J96" s="127"/>
-      <c r="K96" s="127"/>
-      <c r="L96" s="127"/>
-      <c r="M96" s="127"/>
-      <c r="N96" s="127"/>
-      <c r="O96" s="127"/>
-      <c r="P96" s="127"/>
+      <c r="B96" s="148"/>
+      <c r="C96" s="148"/>
+      <c r="D96" s="148"/>
+      <c r="E96" s="148"/>
+      <c r="F96" s="148"/>
+      <c r="G96" s="148"/>
+      <c r="H96" s="148"/>
+      <c r="I96" s="148"/>
+      <c r="J96" s="148"/>
+      <c r="K96" s="148"/>
+      <c r="L96" s="148"/>
+      <c r="M96" s="148"/>
+      <c r="N96" s="148"/>
+      <c r="O96" s="148"/>
+      <c r="P96" s="148"/>
       <c r="T96" s="22"/>
     </row>
     <row r="97" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A97" s="120" t="s">
+      <c r="A97" s="141" t="s">
         <v>245</v>
       </c>
-      <c r="B97" s="120"/>
-      <c r="C97" s="120"/>
-      <c r="D97" s="120"/>
-      <c r="E97" s="120"/>
-      <c r="F97" s="120"/>
-      <c r="G97" s="120"/>
-      <c r="H97" s="120"/>
-      <c r="I97" s="120"/>
-      <c r="J97" s="120"/>
-      <c r="K97" s="120"/>
-      <c r="L97" s="120"/>
-      <c r="M97" s="120"/>
-      <c r="N97" s="120"/>
-      <c r="O97" s="120"/>
-      <c r="P97" s="120"/>
+      <c r="B97" s="141"/>
+      <c r="C97" s="141"/>
+      <c r="D97" s="141"/>
+      <c r="E97" s="141"/>
+      <c r="F97" s="141"/>
+      <c r="G97" s="141"/>
+      <c r="H97" s="141"/>
+      <c r="I97" s="141"/>
+      <c r="J97" s="141"/>
+      <c r="K97" s="141"/>
+      <c r="L97" s="141"/>
+      <c r="M97" s="141"/>
+      <c r="N97" s="141"/>
+      <c r="O97" s="141"/>
+      <c r="P97" s="141"/>
       <c r="T97" s="22"/>
     </row>
     <row r="98" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A98" s="127" t="s">
+      <c r="A98" s="148" t="s">
         <v>244</v>
       </c>
-      <c r="B98" s="127"/>
-      <c r="C98" s="127"/>
-      <c r="D98" s="127"/>
-      <c r="E98" s="127"/>
-      <c r="F98" s="127"/>
-      <c r="G98" s="127"/>
-      <c r="H98" s="127"/>
-      <c r="I98" s="127"/>
-      <c r="J98" s="127"/>
-      <c r="K98" s="127"/>
-      <c r="L98" s="127"/>
-      <c r="M98" s="127"/>
-      <c r="N98" s="127"/>
-      <c r="O98" s="127"/>
-      <c r="P98" s="127"/>
+      <c r="B98" s="148"/>
+      <c r="C98" s="148"/>
+      <c r="D98" s="148"/>
+      <c r="E98" s="148"/>
+      <c r="F98" s="148"/>
+      <c r="G98" s="148"/>
+      <c r="H98" s="148"/>
+      <c r="I98" s="148"/>
+      <c r="J98" s="148"/>
+      <c r="K98" s="148"/>
+      <c r="L98" s="148"/>
+      <c r="M98" s="148"/>
+      <c r="N98" s="148"/>
+      <c r="O98" s="148"/>
+      <c r="P98" s="148"/>
       <c r="T98" s="22"/>
     </row>
     <row r="99" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A99" s="120" t="s">
+      <c r="A99" s="141" t="s">
         <v>243</v>
       </c>
-      <c r="B99" s="120"/>
-      <c r="C99" s="120"/>
-      <c r="D99" s="120"/>
-      <c r="E99" s="120"/>
-      <c r="F99" s="120"/>
-      <c r="G99" s="120"/>
-      <c r="H99" s="120"/>
-      <c r="I99" s="120"/>
-      <c r="J99" s="120"/>
-      <c r="K99" s="120"/>
-      <c r="L99" s="120"/>
-      <c r="M99" s="120"/>
-      <c r="N99" s="120"/>
-      <c r="O99" s="120"/>
-      <c r="P99" s="120"/>
+      <c r="B99" s="141"/>
+      <c r="C99" s="141"/>
+      <c r="D99" s="141"/>
+      <c r="E99" s="141"/>
+      <c r="F99" s="141"/>
+      <c r="G99" s="141"/>
+      <c r="H99" s="141"/>
+      <c r="I99" s="141"/>
+      <c r="J99" s="141"/>
+      <c r="K99" s="141"/>
+      <c r="L99" s="141"/>
+      <c r="M99" s="141"/>
+      <c r="N99" s="141"/>
+      <c r="O99" s="141"/>
+      <c r="P99" s="141"/>
       <c r="T99" s="22"/>
     </row>
     <row r="100" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A100" s="111" t="s">
+      <c r="A100" s="132" t="s">
         <v>242</v>
       </c>
-      <c r="B100" s="111"/>
-      <c r="C100" s="111"/>
-      <c r="D100" s="111"/>
-      <c r="E100" s="111"/>
-      <c r="F100" s="111"/>
-      <c r="G100" s="111"/>
-      <c r="H100" s="111"/>
-      <c r="I100" s="111"/>
-      <c r="J100" s="111"/>
-      <c r="K100" s="111"/>
-      <c r="L100" s="111"/>
-      <c r="M100" s="111"/>
-      <c r="N100" s="111"/>
-      <c r="O100" s="111"/>
-      <c r="P100" s="111"/>
+      <c r="B100" s="132"/>
+      <c r="C100" s="132"/>
+      <c r="D100" s="132"/>
+      <c r="E100" s="132"/>
+      <c r="F100" s="132"/>
+      <c r="G100" s="132"/>
+      <c r="H100" s="132"/>
+      <c r="I100" s="132"/>
+      <c r="J100" s="132"/>
+      <c r="K100" s="132"/>
+      <c r="L100" s="132"/>
+      <c r="M100" s="132"/>
+      <c r="N100" s="132"/>
+      <c r="O100" s="132"/>
+      <c r="P100" s="132"/>
       <c r="T100" s="22"/>
     </row>
     <row r="101" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A101" s="108" t="s">
+      <c r="A101" s="129" t="s">
         <v>241</v>
       </c>
-      <c r="B101" s="108"/>
-      <c r="C101" s="108"/>
-      <c r="D101" s="108"/>
-      <c r="E101" s="108"/>
-      <c r="F101" s="108"/>
-      <c r="G101" s="108"/>
-      <c r="H101" s="108"/>
-      <c r="I101" s="108"/>
-      <c r="J101" s="108"/>
-      <c r="K101" s="108"/>
-      <c r="L101" s="108"/>
-      <c r="M101" s="108"/>
-      <c r="N101" s="108"/>
-      <c r="O101" s="108"/>
-      <c r="P101" s="108"/>
+      <c r="B101" s="129"/>
+      <c r="C101" s="129"/>
+      <c r="D101" s="129"/>
+      <c r="E101" s="129"/>
+      <c r="F101" s="129"/>
+      <c r="G101" s="129"/>
+      <c r="H101" s="129"/>
+      <c r="I101" s="129"/>
+      <c r="J101" s="129"/>
+      <c r="K101" s="129"/>
+      <c r="L101" s="129"/>
+      <c r="M101" s="129"/>
+      <c r="N101" s="129"/>
+      <c r="O101" s="129"/>
+      <c r="P101" s="129"/>
       <c r="T101" s="22"/>
     </row>
     <row r="102" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A102" s="109" t="s">
+      <c r="A102" s="130" t="s">
         <v>240</v>
       </c>
-      <c r="B102" s="109"/>
-      <c r="C102" s="109"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="109"/>
-      <c r="F102" s="109"/>
-      <c r="G102" s="109"/>
-      <c r="H102" s="109"/>
-      <c r="I102" s="109"/>
-      <c r="J102" s="109"/>
-      <c r="K102" s="109"/>
-      <c r="L102" s="109"/>
-      <c r="M102" s="109"/>
-      <c r="N102" s="109"/>
-      <c r="O102" s="109"/>
-      <c r="P102" s="109"/>
+      <c r="B102" s="130"/>
+      <c r="C102" s="130"/>
+      <c r="D102" s="130"/>
+      <c r="E102" s="130"/>
+      <c r="F102" s="130"/>
+      <c r="G102" s="130"/>
+      <c r="H102" s="130"/>
+      <c r="I102" s="130"/>
+      <c r="J102" s="130"/>
+      <c r="K102" s="130"/>
+      <c r="L102" s="130"/>
+      <c r="M102" s="130"/>
+      <c r="N102" s="130"/>
+      <c r="O102" s="130"/>
+      <c r="P102" s="130"/>
       <c r="T102" s="22"/>
     </row>
     <row r="103" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A103" s="109" t="s">
+      <c r="A103" s="130" t="s">
         <v>239</v>
       </c>
-      <c r="B103" s="109"/>
-      <c r="C103" s="109"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="109"/>
-      <c r="F103" s="109"/>
-      <c r="G103" s="109"/>
-      <c r="H103" s="109"/>
-      <c r="I103" s="109"/>
-      <c r="J103" s="109"/>
-      <c r="K103" s="109"/>
-      <c r="L103" s="109"/>
-      <c r="M103" s="109"/>
-      <c r="N103" s="109"/>
-      <c r="O103" s="109"/>
-      <c r="P103" s="109"/>
+      <c r="B103" s="130"/>
+      <c r="C103" s="130"/>
+      <c r="D103" s="130"/>
+      <c r="E103" s="130"/>
+      <c r="F103" s="130"/>
+      <c r="G103" s="130"/>
+      <c r="H103" s="130"/>
+      <c r="I103" s="130"/>
+      <c r="J103" s="130"/>
+      <c r="K103" s="130"/>
+      <c r="L103" s="130"/>
+      <c r="M103" s="130"/>
+      <c r="N103" s="130"/>
+      <c r="O103" s="130"/>
+      <c r="P103" s="130"/>
       <c r="T103" s="22"/>
     </row>
     <row r="104" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A104" s="109" t="s">
+      <c r="A104" s="130" t="s">
         <v>238</v>
       </c>
-      <c r="B104" s="109"/>
-      <c r="C104" s="109"/>
-      <c r="D104" s="109"/>
-      <c r="E104" s="109"/>
-      <c r="F104" s="109"/>
-      <c r="G104" s="109"/>
-      <c r="H104" s="109"/>
-      <c r="I104" s="109"/>
-      <c r="J104" s="109"/>
-      <c r="K104" s="109"/>
-      <c r="L104" s="109"/>
-      <c r="M104" s="109"/>
-      <c r="N104" s="109"/>
-      <c r="O104" s="109"/>
-      <c r="P104" s="109"/>
+      <c r="B104" s="130"/>
+      <c r="C104" s="130"/>
+      <c r="D104" s="130"/>
+      <c r="E104" s="130"/>
+      <c r="F104" s="130"/>
+      <c r="G104" s="130"/>
+      <c r="H104" s="130"/>
+      <c r="I104" s="130"/>
+      <c r="J104" s="130"/>
+      <c r="K104" s="130"/>
+      <c r="L104" s="130"/>
+      <c r="M104" s="130"/>
+      <c r="N104" s="130"/>
+      <c r="O104" s="130"/>
+      <c r="P104" s="130"/>
       <c r="T104" s="22"/>
     </row>
     <row r="105" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A105" s="111" t="s">
+      <c r="A105" s="132" t="s">
         <v>237</v>
       </c>
-      <c r="B105" s="111"/>
-      <c r="C105" s="111"/>
-      <c r="D105" s="111"/>
-      <c r="E105" s="111"/>
-      <c r="F105" s="111"/>
-      <c r="G105" s="111"/>
-      <c r="H105" s="111"/>
-      <c r="I105" s="111"/>
-      <c r="J105" s="111"/>
-      <c r="K105" s="111"/>
-      <c r="L105" s="111"/>
-      <c r="M105" s="111"/>
-      <c r="N105" s="111"/>
-      <c r="O105" s="111"/>
-      <c r="P105" s="111"/>
+      <c r="B105" s="132"/>
+      <c r="C105" s="132"/>
+      <c r="D105" s="132"/>
+      <c r="E105" s="132"/>
+      <c r="F105" s="132"/>
+      <c r="G105" s="132"/>
+      <c r="H105" s="132"/>
+      <c r="I105" s="132"/>
+      <c r="J105" s="132"/>
+      <c r="K105" s="132"/>
+      <c r="L105" s="132"/>
+      <c r="M105" s="132"/>
+      <c r="N105" s="132"/>
+      <c r="O105" s="132"/>
+      <c r="P105" s="132"/>
       <c r="T105" s="22"/>
     </row>
     <row r="106" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A106" s="108" t="s">
+      <c r="A106" s="129" t="s">
         <v>236</v>
       </c>
-      <c r="B106" s="108"/>
-      <c r="C106" s="108"/>
-      <c r="D106" s="108"/>
-      <c r="E106" s="108"/>
-      <c r="F106" s="108"/>
-      <c r="G106" s="108"/>
-      <c r="H106" s="108"/>
-      <c r="I106" s="108"/>
-      <c r="J106" s="108"/>
-      <c r="K106" s="108"/>
-      <c r="L106" s="108"/>
-      <c r="M106" s="108"/>
-      <c r="N106" s="108"/>
-      <c r="O106" s="108"/>
-      <c r="P106" s="108"/>
+      <c r="B106" s="129"/>
+      <c r="C106" s="129"/>
+      <c r="D106" s="129"/>
+      <c r="E106" s="129"/>
+      <c r="F106" s="129"/>
+      <c r="G106" s="129"/>
+      <c r="H106" s="129"/>
+      <c r="I106" s="129"/>
+      <c r="J106" s="129"/>
+      <c r="K106" s="129"/>
+      <c r="L106" s="129"/>
+      <c r="M106" s="129"/>
+      <c r="N106" s="129"/>
+      <c r="O106" s="129"/>
+      <c r="P106" s="129"/>
       <c r="T106" s="22"/>
     </row>
     <row r="107" spans="1:20" s="21" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A107" s="115" t="s">
+      <c r="A107" s="136" t="s">
         <v>235</v>
       </c>
-      <c r="B107" s="115"/>
-      <c r="C107" s="115"/>
-      <c r="D107" s="115"/>
-      <c r="E107" s="115"/>
-      <c r="F107" s="115"/>
-      <c r="G107" s="115"/>
-      <c r="H107" s="115"/>
-      <c r="I107" s="115"/>
-      <c r="J107" s="115"/>
-      <c r="K107" s="115"/>
-      <c r="L107" s="115"/>
-      <c r="M107" s="115"/>
-      <c r="N107" s="115"/>
-      <c r="O107" s="115"/>
-      <c r="P107" s="115"/>
+      <c r="B107" s="136"/>
+      <c r="C107" s="136"/>
+      <c r="D107" s="136"/>
+      <c r="E107" s="136"/>
+      <c r="F107" s="136"/>
+      <c r="G107" s="136"/>
+      <c r="H107" s="136"/>
+      <c r="I107" s="136"/>
+      <c r="J107" s="136"/>
+      <c r="K107" s="136"/>
+      <c r="L107" s="136"/>
+      <c r="M107" s="136"/>
+      <c r="N107" s="136"/>
+      <c r="O107" s="136"/>
+      <c r="P107" s="136"/>
       <c r="T107" s="22"/>
     </row>
     <row r="108" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A108" s="108" t="s">
+      <c r="A108" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="B108" s="108"/>
-      <c r="C108" s="108"/>
-      <c r="D108" s="108"/>
-      <c r="E108" s="108"/>
-      <c r="F108" s="108"/>
-      <c r="G108" s="108"/>
-      <c r="H108" s="108"/>
-      <c r="I108" s="108"/>
-      <c r="J108" s="108"/>
-      <c r="K108" s="108"/>
-      <c r="L108" s="108"/>
-      <c r="M108" s="108"/>
-      <c r="N108" s="108"/>
-      <c r="O108" s="108"/>
-      <c r="P108" s="108"/>
+      <c r="B108" s="129"/>
+      <c r="C108" s="129"/>
+      <c r="D108" s="129"/>
+      <c r="E108" s="129"/>
+      <c r="F108" s="129"/>
+      <c r="G108" s="129"/>
+      <c r="H108" s="129"/>
+      <c r="I108" s="129"/>
+      <c r="J108" s="129"/>
+      <c r="K108" s="129"/>
+      <c r="L108" s="129"/>
+      <c r="M108" s="129"/>
+      <c r="N108" s="129"/>
+      <c r="O108" s="129"/>
+      <c r="P108" s="129"/>
       <c r="T108" s="22"/>
     </row>
     <row r="109" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A109" s="112" t="s">
+      <c r="A109" s="133" t="s">
         <v>233</v>
       </c>
-      <c r="B109" s="112"/>
-      <c r="C109" s="112"/>
-      <c r="D109" s="112"/>
-      <c r="E109" s="112"/>
-      <c r="F109" s="112"/>
-      <c r="G109" s="112"/>
-      <c r="H109" s="112"/>
-      <c r="I109" s="112"/>
-      <c r="J109" s="112"/>
-      <c r="K109" s="112"/>
-      <c r="L109" s="112"/>
-      <c r="M109" s="112"/>
-      <c r="N109" s="112"/>
-      <c r="O109" s="112"/>
-      <c r="P109" s="112"/>
+      <c r="B109" s="133"/>
+      <c r="C109" s="133"/>
+      <c r="D109" s="133"/>
+      <c r="E109" s="133"/>
+      <c r="F109" s="133"/>
+      <c r="G109" s="133"/>
+      <c r="H109" s="133"/>
+      <c r="I109" s="133"/>
+      <c r="J109" s="133"/>
+      <c r="K109" s="133"/>
+      <c r="L109" s="133"/>
+      <c r="M109" s="133"/>
+      <c r="N109" s="133"/>
+      <c r="O109" s="133"/>
+      <c r="P109" s="133"/>
       <c r="T109" s="22"/>
     </row>
     <row r="110" spans="1:20" s="21" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A110" s="113" t="s">
+      <c r="A110" s="134" t="s">
         <v>232</v>
       </c>
-      <c r="B110" s="113"/>
-      <c r="C110" s="113"/>
-      <c r="D110" s="113"/>
-      <c r="E110" s="113"/>
-      <c r="F110" s="113"/>
-      <c r="G110" s="113"/>
-      <c r="H110" s="113"/>
-      <c r="I110" s="113"/>
-      <c r="J110" s="113"/>
-      <c r="K110" s="113"/>
-      <c r="L110" s="113"/>
-      <c r="M110" s="113"/>
-      <c r="N110" s="113"/>
-      <c r="O110" s="113"/>
-      <c r="P110" s="113"/>
+      <c r="B110" s="134"/>
+      <c r="C110" s="134"/>
+      <c r="D110" s="134"/>
+      <c r="E110" s="134"/>
+      <c r="F110" s="134"/>
+      <c r="G110" s="134"/>
+      <c r="H110" s="134"/>
+      <c r="I110" s="134"/>
+      <c r="J110" s="134"/>
+      <c r="K110" s="134"/>
+      <c r="L110" s="134"/>
+      <c r="M110" s="134"/>
+      <c r="N110" s="134"/>
+      <c r="O110" s="134"/>
+      <c r="P110" s="134"/>
       <c r="T110" s="22"/>
     </row>
     <row r="111" spans="1:20" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A111" s="108" t="s">
+      <c r="A111" s="129" t="s">
         <v>231</v>
       </c>
-      <c r="B111" s="108"/>
-      <c r="C111" s="108"/>
-      <c r="D111" s="108"/>
-      <c r="E111" s="108"/>
-      <c r="F111" s="108"/>
-      <c r="G111" s="108"/>
-      <c r="H111" s="108"/>
-      <c r="I111" s="108"/>
-      <c r="J111" s="108"/>
-      <c r="K111" s="108"/>
-      <c r="L111" s="108"/>
-      <c r="M111" s="108"/>
-      <c r="N111" s="108"/>
-      <c r="O111" s="108"/>
-      <c r="P111" s="108"/>
+      <c r="B111" s="129"/>
+      <c r="C111" s="129"/>
+      <c r="D111" s="129"/>
+      <c r="E111" s="129"/>
+      <c r="F111" s="129"/>
+      <c r="G111" s="129"/>
+      <c r="H111" s="129"/>
+      <c r="I111" s="129"/>
+      <c r="J111" s="129"/>
+      <c r="K111" s="129"/>
+      <c r="L111" s="129"/>
+      <c r="M111" s="129"/>
+      <c r="N111" s="129"/>
+      <c r="O111" s="129"/>
+      <c r="P111" s="129"/>
       <c r="T111" s="22"/>
     </row>
     <row r="112" spans="1:20" s="21" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A112" s="109" t="s">
+      <c r="A112" s="130" t="s">
         <v>230</v>
       </c>
-      <c r="B112" s="109"/>
-      <c r="C112" s="109"/>
-      <c r="D112" s="109"/>
-      <c r="E112" s="109"/>
-      <c r="F112" s="109"/>
-      <c r="G112" s="109"/>
-      <c r="H112" s="109"/>
-      <c r="I112" s="109"/>
-      <c r="J112" s="109"/>
-      <c r="K112" s="109"/>
-      <c r="L112" s="109"/>
-      <c r="M112" s="109"/>
-      <c r="N112" s="109"/>
-      <c r="O112" s="109"/>
-      <c r="P112" s="109"/>
+      <c r="B112" s="130"/>
+      <c r="C112" s="130"/>
+      <c r="D112" s="130"/>
+      <c r="E112" s="130"/>
+      <c r="F112" s="130"/>
+      <c r="G112" s="130"/>
+      <c r="H112" s="130"/>
+      <c r="I112" s="130"/>
+      <c r="J112" s="130"/>
+      <c r="K112" s="130"/>
+      <c r="L112" s="130"/>
+      <c r="M112" s="130"/>
+      <c r="N112" s="130"/>
+      <c r="O112" s="130"/>
+      <c r="P112" s="130"/>
       <c r="T112" s="22"/>
     </row>
   </sheetData>
@@ -31859,7 +32064,7 @@
     <mergeCell ref="A87:P87"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="35" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31871,7 +32076,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -31910,22 +32115,22 @@
         <v>3</v>
       </c>
       <c r="B2" s="80">
-        <f>'LDV psg'!$B$37</f>
-        <v>181500</v>
+        <f>'LDV psg'!$B$25</f>
+        <v>53549</v>
       </c>
       <c r="C2" s="80">
         <v>0</v>
       </c>
       <c r="D2" s="80">
-        <f>'LDV psg'!$A$9</f>
-        <v>25467663</v>
+        <f>'LDV psg'!$B$13</f>
+        <v>25369152</v>
       </c>
       <c r="E2" s="80">
         <v>0</v>
       </c>
       <c r="F2" s="80">
-        <f>'LDV psg'!$B$38</f>
-        <v>158100</v>
+        <f>'LDV psg'!$B$26</f>
+        <v>44962</v>
       </c>
       <c r="G2" s="81">
         <v>0</v>
@@ -32001,7 +32206,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="80">
-        <f>'California and US popuplation'!C70*'NTS 1-11'!AK37</f>
+        <f>'California and US population'!C70*'NTS 1-11'!AK37</f>
         <v>2850.1171988645283</v>
       </c>
     </row>
@@ -32025,7 +32230,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="80">
-        <f>'NTS 1-11'!AJ32*'California and US popuplation'!D23</f>
+        <f>'NTS 1-11'!AJ32*'California and US population'!D23</f>
         <v>1052.8632192314744</v>
       </c>
     </row>
@@ -32069,7 +32274,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F3" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -32221,7 +32426,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="80">
-        <f>'California and US popuplation'!D23*'NTS 1-11'!AJ33*36.5</f>
+        <f>'California and US population'!D23*'NTS 1-11'!AJ33*36.5</f>
         <v>638.77275667598087</v>
       </c>
     </row>
@@ -32255,862 +32460,1733 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AI68"/>
+  <dimension ref="A2:AI92"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="29.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="101" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="106" t="s">
+        <v>488</v>
+      </c>
+      <c r="B6">
         <v>25467663</v>
       </c>
-      <c r="C9" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="C10" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="101" t="s">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="104"/>
+    </row>
+    <row r="8" spans="1:8" s="106" customFormat="1"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="122" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="105" t="s">
+        <v>467</v>
+      </c>
+      <c r="B10" s="117">
+        <f>B27</f>
+        <v>98511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B13" s="104">
+        <f>B6+B7-B10</f>
+        <v>25369152</v>
+      </c>
+      <c r="C13" s="104"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="H14" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="133" t="s">
+    <row r="15" spans="1:8">
+      <c r="H15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="71"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="101" t="s">
         <v>441</v>
       </c>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="133" t="s">
+      <c r="C21" s="106"/>
+    </row>
+    <row r="23" spans="1:3" ht="29">
+      <c r="A23" s="121" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="69"/>
+      <c r="B24" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="B37" s="134">
-        <v>181500</v>
-      </c>
-      <c r="C37" s="133"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="133" t="s">
+      <c r="B25" s="120">
+        <f>53549</f>
+        <v>53549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A26" s="102" t="s">
         <v>440</v>
       </c>
-      <c r="B38" s="133">
-        <f>$G$44</f>
-        <v>158100</v>
-      </c>
-      <c r="C38" s="133"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="B26" s="120">
+        <v>44962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="102" t="s">
+        <v>466</v>
+      </c>
+      <c r="B27" s="80">
+        <f>B25+B26</f>
+        <v>98511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="69" customFormat="1">
+      <c r="A28"/>
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" s="69"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" s="69"/>
+    </row>
+    <row r="31" spans="1:3" s="106" customFormat="1">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31" s="69"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" s="69"/>
+    </row>
+    <row r="39" spans="1:35">
+      <c r="A39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35">
       <c r="A40" t="s">
+        <v>357</v>
+      </c>
+      <c r="B40">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35">
+      <c r="A41" t="s">
+        <v>358</v>
+      </c>
+      <c r="B41" s="71">
+        <v>720810.99964225199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35">
+      <c r="A42" t="s">
+        <v>359</v>
+      </c>
+      <c r="B42" s="71">
+        <v>37357.539955084001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35">
+      <c r="A43" t="s">
+        <v>438</v>
+      </c>
+      <c r="B43" s="71">
+        <v>10327.0550413947</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35">
+      <c r="A44" t="s">
+        <v>439</v>
+      </c>
+      <c r="B44" s="71">
+        <v>24323051.2048328</v>
+      </c>
+      <c r="C44">
+        <v>2018</v>
+      </c>
+      <c r="D44">
+        <v>2019</v>
+      </c>
+      <c r="E44">
+        <v>2020</v>
+      </c>
+      <c r="F44">
+        <v>2021</v>
+      </c>
+      <c r="G44">
+        <v>2022</v>
+      </c>
+      <c r="H44">
+        <v>2023</v>
+      </c>
+      <c r="I44">
+        <v>2024</v>
+      </c>
+      <c r="J44">
+        <v>2025</v>
+      </c>
+      <c r="K44">
+        <v>2026</v>
+      </c>
+      <c r="L44">
+        <v>2027</v>
+      </c>
+      <c r="M44">
+        <v>2028</v>
+      </c>
+      <c r="N44">
+        <v>2029</v>
+      </c>
+      <c r="O44">
+        <v>2030</v>
+      </c>
+      <c r="P44">
+        <v>2031</v>
+      </c>
+      <c r="Q44">
+        <v>2032</v>
+      </c>
+      <c r="R44">
+        <v>2033</v>
+      </c>
+      <c r="S44">
+        <v>2034</v>
+      </c>
+      <c r="T44">
+        <v>2035</v>
+      </c>
+      <c r="U44">
+        <v>2036</v>
+      </c>
+      <c r="V44">
+        <v>2037</v>
+      </c>
+      <c r="W44">
+        <v>2038</v>
+      </c>
+      <c r="X44">
+        <v>2039</v>
+      </c>
+      <c r="Y44">
+        <v>2040</v>
+      </c>
+      <c r="Z44">
+        <v>2041</v>
+      </c>
+      <c r="AA44">
+        <v>2042</v>
+      </c>
+      <c r="AB44">
+        <v>2043</v>
+      </c>
+      <c r="AC44">
+        <v>2044</v>
+      </c>
+      <c r="AD44">
+        <v>2045</v>
+      </c>
+      <c r="AE44">
+        <v>2046</v>
+      </c>
+      <c r="AF44">
+        <v>2047</v>
+      </c>
+      <c r="AG44">
+        <v>2048</v>
+      </c>
+      <c r="AH44">
+        <v>2049</v>
+      </c>
+      <c r="AI44">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35">
+      <c r="B45" s="71">
+        <v>122858.28743417699</v>
+      </c>
+      <c r="C45" s="71">
+        <v>729418.837663176</v>
+      </c>
+      <c r="D45" s="71">
+        <v>743098.01211825595</v>
+      </c>
+      <c r="E45" s="71">
+        <v>751891.13849257794</v>
+      </c>
+      <c r="F45" s="71">
+        <v>763910.37373676198</v>
+      </c>
+      <c r="G45" s="71">
+        <v>777238.796738317</v>
+      </c>
+      <c r="H45" s="71">
+        <v>787767.22000888595</v>
+      </c>
+      <c r="I45" s="71">
+        <v>793516.73142701504</v>
+      </c>
+      <c r="J45" s="71">
+        <v>798817.95887333702</v>
+      </c>
+      <c r="K45" s="71">
+        <v>808934.24585518998</v>
+      </c>
+      <c r="L45" s="71">
+        <v>815718.19299348001</v>
+      </c>
+      <c r="M45" s="71">
+        <v>823194.17535101902</v>
+      </c>
+      <c r="N45" s="71">
+        <v>831987.82600806199</v>
+      </c>
+      <c r="O45" s="71">
+        <v>840060.45541615901</v>
+      </c>
+      <c r="P45" s="71">
+        <v>848339.51518581505</v>
+      </c>
+      <c r="Q45" s="71">
+        <v>856988.09343168698</v>
+      </c>
+      <c r="R45" s="71">
+        <v>866492.28291246505</v>
+      </c>
+      <c r="S45" s="71">
+        <v>876157.08326819795</v>
+      </c>
+      <c r="T45" s="71">
+        <v>886641.71621423704</v>
+      </c>
+      <c r="U45" s="71">
+        <v>896713.50248510903</v>
+      </c>
+      <c r="V45" s="71">
+        <v>907143.85934577405</v>
+      </c>
+      <c r="W45" s="71">
+        <v>917503.39793054305</v>
+      </c>
+      <c r="X45" s="71">
+        <v>927884.96265941497</v>
+      </c>
+      <c r="Y45" s="71">
+        <v>938158.82877864596</v>
+      </c>
+      <c r="Z45" s="71">
+        <v>951148.23234745103</v>
+      </c>
+      <c r="AA45" s="71">
+        <v>964476.92440737702</v>
+      </c>
+      <c r="AB45" s="71">
+        <v>977217.54383267602</v>
+      </c>
+      <c r="AC45" s="71">
+        <v>988979.97900000005</v>
+      </c>
+      <c r="AD45" s="71">
+        <v>999145.66804405802</v>
+      </c>
+      <c r="AE45" s="71">
+        <v>1008014.18977355</v>
+      </c>
+      <c r="AF45" s="71">
+        <v>1015259.28680117</v>
+      </c>
+      <c r="AG45" s="71">
+        <v>1021637.63934846</v>
+      </c>
+      <c r="AH45" s="71">
+        <v>1029929.35193774</v>
+      </c>
+      <c r="AI45" s="71">
+        <v>1035428.25640777</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35">
+      <c r="A46" t="s">
+        <v>445</v>
+      </c>
+      <c r="C46" s="71">
+        <v>58326.997084083203</v>
+      </c>
+      <c r="D46" s="71">
+        <v>89872.177153049895</v>
+      </c>
+      <c r="E46" s="71">
+        <v>123973.75337514799</v>
+      </c>
+      <c r="F46" s="71">
+        <v>147046.94049783601</v>
+      </c>
+      <c r="G46" s="71">
+        <v>194209.117771544</v>
+      </c>
+      <c r="H46" s="71">
+        <v>263621.33450470603</v>
+      </c>
+      <c r="I46" s="71">
+        <v>348222.10433122498</v>
+      </c>
+      <c r="J46" s="71">
+        <v>449677.36956727598</v>
+      </c>
+      <c r="K46" s="71">
+        <v>567250.33407906804</v>
+      </c>
+      <c r="L46" s="71">
+        <v>682699.97497327498</v>
+      </c>
+      <c r="M46" s="71">
+        <v>808866.49420975696</v>
+      </c>
+      <c r="N46" s="71">
+        <v>944149.59210737003</v>
+      </c>
+      <c r="O46" s="71">
+        <v>1087799.4135117501</v>
+      </c>
+      <c r="P46" s="71">
+        <v>1248928.95376461</v>
+      </c>
+      <c r="Q46" s="71">
+        <v>1417217.6619132301</v>
+      </c>
+      <c r="R46" s="71">
+        <v>1601965.6638325199</v>
+      </c>
+      <c r="S46" s="71">
+        <v>1804283.82424161</v>
+      </c>
+      <c r="T46" s="71">
+        <v>2028166.6549714101</v>
+      </c>
+      <c r="U46" s="71">
+        <v>2268913.6220836202</v>
+      </c>
+      <c r="V46" s="71">
+        <v>2532396.12530122</v>
+      </c>
+      <c r="W46" s="71">
+        <v>2818139.2650957298</v>
+      </c>
+      <c r="X46" s="71">
+        <v>3125810.9217527602</v>
+      </c>
+      <c r="Y46" s="71">
+        <v>3455359.3190627</v>
+      </c>
+      <c r="Z46" s="71">
+        <v>3831363.4321226599</v>
+      </c>
+      <c r="AA46" s="71">
+        <v>4224600.8382268399</v>
+      </c>
+      <c r="AB46" s="71">
+        <v>4633367.4725127798</v>
+      </c>
+      <c r="AC46" s="71">
+        <v>5055339.0592907201</v>
+      </c>
+      <c r="AD46" s="71">
+        <v>5487268.7709278399</v>
+      </c>
+      <c r="AE46" s="71">
+        <v>5926873.6993514895</v>
+      </c>
+      <c r="AF46" s="71">
+        <v>6371704.8379943604</v>
+      </c>
+      <c r="AG46" s="71">
+        <v>6819965.2690479504</v>
+      </c>
+      <c r="AH46" s="71">
+        <v>7269458.2234470705</v>
+      </c>
+      <c r="AI46" s="71">
+        <v>7717968.2351062503</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35">
+      <c r="C47" s="71">
+        <v>16273.485403594999</v>
+      </c>
+      <c r="D47" s="71">
+        <v>25235.6760838265</v>
+      </c>
+      <c r="E47" s="71">
+        <v>35003.742112230597</v>
+      </c>
+      <c r="F47" s="71">
+        <v>46422.615165334399</v>
+      </c>
+      <c r="G47" s="71">
+        <v>70076.416991261402</v>
+      </c>
+      <c r="H47" s="71">
+        <v>105138.765496712</v>
+      </c>
+      <c r="I47" s="71">
+        <v>148020.98780097801</v>
+      </c>
+      <c r="J47" s="71">
+        <v>201209.94760598801</v>
+      </c>
+      <c r="K47" s="71">
+        <v>263859.44711097499</v>
+      </c>
+      <c r="L47" s="71">
+        <v>336415.39837109798</v>
+      </c>
+      <c r="M47" s="71">
+        <v>424665.56822639302</v>
+      </c>
+      <c r="N47" s="71">
+        <v>527461.16429113096</v>
+      </c>
+      <c r="O47" s="71">
+        <v>644277.93283186399</v>
+      </c>
+      <c r="P47" s="71">
+        <v>787771.16284801299</v>
+      </c>
+      <c r="Q47" s="71">
+        <v>952144.45210472494</v>
+      </c>
+      <c r="R47" s="71">
+        <v>1142683.94633997</v>
+      </c>
+      <c r="S47" s="71">
+        <v>1360359.5399448101</v>
+      </c>
+      <c r="T47" s="71">
+        <v>1608506.0840139701</v>
+      </c>
+      <c r="U47" s="71">
+        <v>1884438.3360099799</v>
+      </c>
+      <c r="V47" s="71">
+        <v>2183037.9101581802</v>
+      </c>
+      <c r="W47" s="71">
+        <v>2503513.4846439101</v>
+      </c>
+      <c r="X47" s="71">
+        <v>2844945.5613719998</v>
+      </c>
+      <c r="Y47" s="71">
+        <v>3206855.5998881501</v>
+      </c>
+      <c r="Z47" s="71">
+        <v>3603093.3353948598</v>
+      </c>
+      <c r="AA47" s="71">
+        <v>4014181.85414259</v>
+      </c>
+      <c r="AB47" s="71">
+        <v>4437806.1924336599</v>
+      </c>
+      <c r="AC47" s="71">
+        <v>4871702.4128202004</v>
+      </c>
+      <c r="AD47" s="71">
+        <v>5312889.6671856204</v>
+      </c>
+      <c r="AE47" s="71">
+        <v>5759145.71912253</v>
+      </c>
+      <c r="AF47" s="71">
+        <v>6191261.9922858803</v>
+      </c>
+      <c r="AG47" s="71">
+        <v>6608615.2973933304</v>
+      </c>
+      <c r="AH47" s="71">
+        <v>7010278.4760777801</v>
+      </c>
+      <c r="AI47" s="71">
+        <v>7395600.8726533204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35">
+      <c r="A48" t="s">
+        <v>443</v>
+      </c>
+      <c r="C48" s="71">
+        <v>24314466.586231101</v>
+      </c>
+      <c r="D48" s="71">
+        <v>24458849.130264699</v>
+      </c>
+      <c r="E48" s="71">
+        <v>24494139.1171887</v>
+      </c>
+      <c r="F48" s="71">
+        <v>24740585.880821299</v>
+      </c>
+      <c r="G48" s="71">
+        <v>24991059.430233501</v>
+      </c>
+      <c r="H48" s="71">
+        <v>25154555.180503901</v>
+      </c>
+      <c r="I48" s="71">
+        <v>25129305.192068201</v>
+      </c>
+      <c r="J48" s="71">
+        <v>25077696.041092299</v>
+      </c>
+      <c r="K48" s="71">
+        <v>25147985.9374124</v>
+      </c>
+      <c r="L48" s="71">
+        <v>25129222.531082701</v>
+      </c>
+      <c r="M48" s="71">
+        <v>25051298.512529001</v>
+      </c>
+      <c r="N48" s="71">
+        <v>24913946.029991001</v>
+      </c>
+      <c r="O48" s="71">
+        <v>24718085.4514958</v>
+      </c>
+      <c r="P48" s="71">
+        <v>24474613.332079399</v>
+      </c>
+      <c r="Q48" s="71">
+        <v>24172705.884193901</v>
+      </c>
+      <c r="R48" s="71">
+        <v>23818596.660266001</v>
+      </c>
+      <c r="S48" s="71">
+        <v>23409659.573408499</v>
+      </c>
+      <c r="T48" s="71">
+        <v>22946635.296310201</v>
+      </c>
+      <c r="U48" s="71">
+        <v>22419504.569056001</v>
+      </c>
+      <c r="V48" s="71">
+        <v>21838219.317860801</v>
+      </c>
+      <c r="W48" s="71">
+        <v>21201597.598665599</v>
+      </c>
+      <c r="X48" s="71">
+        <v>20510851.0288506</v>
+      </c>
+      <c r="Y48" s="71">
+        <v>19769540.610420998</v>
+      </c>
+      <c r="Z48" s="71">
+        <v>19002695.918524999</v>
+      </c>
+      <c r="AA48" s="71">
+        <v>18192855.549308401</v>
+      </c>
+      <c r="AB48" s="71">
+        <v>17350523.4840988</v>
+      </c>
+      <c r="AC48" s="71">
+        <v>16479198.0126878</v>
+      </c>
+      <c r="AD48" s="71">
+        <v>15720312.861592099</v>
+      </c>
+      <c r="AE48" s="71">
+        <v>14942055.6564925</v>
+      </c>
+      <c r="AF48" s="71">
+        <v>14167444.2045977</v>
+      </c>
+      <c r="AG48" s="71">
+        <v>13402731.2873595</v>
+      </c>
+      <c r="AH48" s="71">
+        <v>12649779.0194759</v>
+      </c>
+      <c r="AI48" s="71">
+        <v>11913124.890809299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35">
+      <c r="B49" s="71">
+        <f>B41+B44</f>
+        <v>25043862.204475053</v>
+      </c>
+      <c r="C49" s="71">
+        <v>184614.529730732</v>
+      </c>
+      <c r="D49" s="71">
+        <v>277165.28416891099</v>
+      </c>
+      <c r="E49" s="71">
+        <v>373679.46433822502</v>
+      </c>
+      <c r="F49" s="71">
+        <v>422571.84557802603</v>
+      </c>
+      <c r="G49" s="71">
+        <v>520027.38650903001</v>
+      </c>
+      <c r="H49" s="71">
+        <v>662419.49745542102</v>
+      </c>
+      <c r="I49" s="71">
+        <v>835390.19050827203</v>
+      </c>
+      <c r="J49" s="71">
+        <v>1034535.40718703</v>
+      </c>
+      <c r="K49" s="71">
+        <v>1273350.9064503401</v>
+      </c>
+      <c r="L49" s="71">
+        <v>1519217.1561012899</v>
+      </c>
+      <c r="M49" s="71">
+        <v>1797047.76369697</v>
+      </c>
+      <c r="N49" s="71">
+        <v>2103154.76865419</v>
+      </c>
+      <c r="O49" s="71">
+        <v>2435800.0382288899</v>
+      </c>
+      <c r="P49" s="71">
+        <v>2764495.1597402799</v>
+      </c>
+      <c r="Q49" s="71">
+        <v>3069374.6781040099</v>
+      </c>
+      <c r="R49" s="71">
+        <v>3369250.29685118</v>
+      </c>
+      <c r="S49" s="71">
+        <v>3666238.9131938298</v>
+      </c>
+      <c r="T49" s="71">
+        <v>3967593.9293643301</v>
+      </c>
+      <c r="U49" s="71">
+        <v>4263946.8985222299</v>
+      </c>
+      <c r="V49" s="71">
+        <v>4565477.3384273797</v>
+      </c>
+      <c r="W49" s="71">
+        <v>4871068.53356901</v>
+      </c>
+      <c r="X49" s="71">
+        <v>5180489.2296960596</v>
+      </c>
+      <c r="Y49" s="71">
+        <v>5493858.3185096597</v>
+      </c>
+      <c r="Z49" s="71">
+        <v>5854351.4851850104</v>
+      </c>
+      <c r="AA49" s="71">
+        <v>6213664.6147896098</v>
+      </c>
+      <c r="AB49" s="71">
+        <v>6571535.5728631699</v>
+      </c>
+      <c r="AC49" s="71">
+        <v>6926321.4420038797</v>
+      </c>
+      <c r="AD49" s="71">
+        <v>7143853.25650902</v>
+      </c>
+      <c r="AE49" s="71">
+        <v>7360446.76954656</v>
+      </c>
+      <c r="AF49" s="71">
+        <v>7575444.13255654</v>
+      </c>
+      <c r="AG49" s="71">
+        <v>7788213.6846246198</v>
+      </c>
+      <c r="AH49" s="71">
+        <v>7998927.4854431702</v>
+      </c>
+      <c r="AI49" s="71">
+        <v>8205777.8515621601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35">
+      <c r="A50" s="101" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="B42">
-        <v>2013</v>
-      </c>
-      <c r="C42">
-        <v>2014</v>
-      </c>
-      <c r="D42">
-        <v>2015</v>
-      </c>
-      <c r="E42">
-        <v>2016</v>
-      </c>
-      <c r="F42">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>358</v>
-      </c>
-      <c r="B43">
-        <v>22000</v>
-      </c>
-      <c r="C43">
-        <v>30000</v>
-      </c>
-      <c r="D43">
-        <v>35000</v>
-      </c>
-      <c r="E43">
-        <v>40000</v>
-      </c>
-      <c r="F43">
-        <v>54500</v>
-      </c>
-      <c r="G43">
-        <f>SUM(B43:F43)</f>
-        <v>181500</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>443</v>
-      </c>
-      <c r="B44">
-        <v>20600</v>
-      </c>
-      <c r="C44">
-        <v>29500</v>
-      </c>
-      <c r="D44">
-        <v>28000</v>
-      </c>
-      <c r="E44">
-        <v>35000</v>
-      </c>
-      <c r="F44">
-        <v>45000</v>
-      </c>
-      <c r="G44">
-        <f>SUM(B44:F44)</f>
-        <v>158100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="101" t="s">
-        <v>442</v>
+    <row r="53" spans="1:35">
+      <c r="A53" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35">
+      <c r="A54" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>361</v>
-      </c>
-      <c r="B55">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35">
+      <c r="A58" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C58">
+        <f>D72+E72+C73+E73</f>
+        <v>1552278.8806354885</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35">
+      <c r="C59">
+        <f>B61+F65+C66+D66+E66+D67</f>
+        <v>880996.80021272239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35">
+      <c r="A60" t="str">
+        <f>'SYVbT-passenger'!A2</f>
+        <v>LDVs</v>
+      </c>
+      <c r="B60" t="str">
+        <f>'SYVbT-passenger'!B1</f>
+        <v>battery electric vehicle</v>
+      </c>
+      <c r="C60" s="103">
+        <f>SUM(C58:C59)</f>
+        <v>2433275.6808482111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35">
+      <c r="A61" t="str">
+        <f>'SYVbT-passenger'!A3</f>
+        <v>HDVs</v>
+      </c>
+      <c r="B61">
+        <f>'SYVbT-passenger'!B2</f>
+        <v>53549</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35">
+      <c r="A62" t="str">
+        <f>'SYVbT-passenger'!A7</f>
+        <v>motorbikes</v>
+      </c>
+      <c r="B62">
+        <f>'SYVbT-passenger'!B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35">
+      <c r="B63">
+        <f>'SYVbT-passenger'!B7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35">
+      <c r="C64" t="str">
+        <f>'SYVbT-passenger'!C1</f>
+        <v>natural gas vehicle</v>
+      </c>
+      <c r="D64" t="str">
+        <f>'SYVbT-passenger'!D1</f>
+        <v>gasoline vehicle</v>
+      </c>
+      <c r="E64" t="str">
+        <f>'SYVbT-passenger'!E1</f>
+        <v>diesel vehicle</v>
+      </c>
+      <c r="F64" t="str">
+        <f>'SYVbT-passenger'!F1</f>
+        <v>plugin hybrid vehicle</v>
+      </c>
+      <c r="G64" t="str">
+        <f>'SYVbT-passenger'!G1</f>
+        <v>nonroad vehicle</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C65">
+        <f>'SYVbT-passenger'!C2</f>
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <f>'SYVbT-passenger'!D2</f>
+        <v>25369152</v>
+      </c>
+      <c r="E65">
+        <f>'SYVbT-passenger'!E2</f>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f>'SYVbT-passenger'!F2</f>
+        <v>44962</v>
+      </c>
+      <c r="G65">
+        <f>'SYVbT-passenger'!G2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="C66">
+        <f>'SYVbT-passenger'!C3</f>
+        <v>4878.0750063671003</v>
+      </c>
+      <c r="D66">
+        <f>'SYVbT-passenger'!D3</f>
+        <v>26287.244478573</v>
+      </c>
+      <c r="E66">
+        <f>'SYVbT-passenger'!E3</f>
+        <v>30509.4810855303</v>
+      </c>
+      <c r="F66">
+        <f>'SYVbT-passenger'!F3</f>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f>'SYVbT-passenger'!G3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" t="str">
+        <f>'SYVbT-freight'!A2</f>
+        <v>LDVs</v>
+      </c>
+      <c r="B67" t="str">
+        <f>'SYVbT-freight'!B1</f>
+        <v>battery electric vehicle</v>
+      </c>
+      <c r="C67">
+        <f>'SYVbT-passenger'!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <f>'SYVbT-passenger'!D7</f>
+        <v>720810.99964225199</v>
+      </c>
+      <c r="E67">
+        <f>'SYVbT-passenger'!E7</f>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f>'SYVbT-passenger'!F7</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f>'SYVbT-passenger'!G7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" t="str">
+        <f>'SYVbT-freight'!A3</f>
+        <v>HDVs</v>
+      </c>
+      <c r="B68">
+        <f>'SYVbT-freight'!B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="B69">
+        <f>'SYVbT-freight'!B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="C71" t="str">
+        <f>'SYVbT-freight'!C1</f>
+        <v>natural gas vehicle</v>
+      </c>
+      <c r="D71" t="str">
+        <f>'SYVbT-freight'!D1</f>
+        <v>gasoline vehicle</v>
+      </c>
+      <c r="E71" t="str">
+        <f>'SYVbT-freight'!E1</f>
+        <v>diesel vehicle</v>
+      </c>
+      <c r="F71" t="str">
+        <f>'SYVbT-freight'!F1</f>
+        <v>plugin hybrid vehicle</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="15.5">
+      <c r="A72" s="111" t="s">
+        <v>468</v>
+      </c>
+      <c r="C72">
+        <f>'SYVbT-freight'!C2</f>
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <f>'SYVbT-freight'!D2</f>
+        <v>593231.314245646</v>
+      </c>
+      <c r="E72">
+        <f>'SYVbT-freight'!E2</f>
+        <v>693366.27541142504</v>
+      </c>
+      <c r="F72">
+        <f>'SYVbT-freight'!F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" s="113" t="s">
+        <v>469</v>
+      </c>
+      <c r="B73" s="106"/>
+      <c r="C73">
+        <f>'SYVbT-freight'!C3</f>
+        <v>9648.5304713736296</v>
+      </c>
+      <c r="D73">
+        <f>'SYVbT-freight'!D3</f>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f>'SYVbT-freight'!E3</f>
+        <v>256032.760507044</v>
+      </c>
+      <c r="F73">
+        <f>'SYVbT-freight'!F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" s="110"/>
+      <c r="B74" s="106"/>
+    </row>
+    <row r="75" spans="1:20" ht="18.5">
+      <c r="A75" s="112" t="s">
+        <v>470</v>
+      </c>
+      <c r="B75" s="106"/>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" s="108" t="s">
+        <v>471</v>
+      </c>
+      <c r="B76" s="106"/>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77" s="115" t="s">
+        <v>473</v>
+      </c>
+      <c r="B77" s="108" t="s">
+        <v>472</v>
+      </c>
+      <c r="C77" s="106"/>
+      <c r="D77" s="106"/>
+      <c r="E77" s="106"/>
+      <c r="F77" s="106"/>
+      <c r="G77" s="106"/>
+      <c r="H77" s="106"/>
+      <c r="I77" s="106"/>
+      <c r="J77" s="106"/>
+      <c r="K77" s="106"/>
+      <c r="L77" s="106"/>
+      <c r="M77" s="106"/>
+      <c r="N77" s="106"/>
+      <c r="O77" s="106"/>
+      <c r="P77" s="106"/>
+      <c r="Q77" s="106"/>
+      <c r="R77" s="106"/>
+      <c r="S77" s="106"/>
+      <c r="T77" s="106"/>
+    </row>
+    <row r="78" spans="1:20" ht="16.5">
+      <c r="A78" s="115" t="s">
+        <v>475</v>
+      </c>
+      <c r="B78" s="109" t="s">
+        <v>474</v>
+      </c>
+      <c r="C78" s="106"/>
+      <c r="D78" s="106"/>
+      <c r="E78" s="106"/>
+      <c r="F78" s="106"/>
+      <c r="G78" s="106"/>
+      <c r="H78" s="106"/>
+      <c r="I78" s="106"/>
+      <c r="J78" s="106"/>
+      <c r="K78" s="106"/>
+      <c r="L78" s="106"/>
+      <c r="M78" s="106"/>
+      <c r="N78" s="106"/>
+      <c r="O78" s="106"/>
+      <c r="P78" s="106"/>
+      <c r="Q78" s="106"/>
+      <c r="R78" s="106"/>
+      <c r="S78" s="106"/>
+      <c r="T78" s="106"/>
+    </row>
+    <row r="79" spans="1:20" ht="16.5">
+      <c r="A79" s="115" t="s">
+        <v>476</v>
+      </c>
+      <c r="B79" s="109" t="s">
+        <v>474</v>
+      </c>
+      <c r="C79" s="106"/>
+      <c r="D79" s="106"/>
+      <c r="E79" s="106"/>
+      <c r="F79" s="106"/>
+      <c r="G79" s="106"/>
+      <c r="H79" s="106"/>
+      <c r="I79" s="106"/>
+      <c r="J79" s="106"/>
+      <c r="K79" s="106"/>
+      <c r="L79" s="106"/>
+      <c r="M79" s="106"/>
+      <c r="N79" s="106"/>
+      <c r="O79" s="106"/>
+      <c r="P79" s="106"/>
+      <c r="Q79" s="106"/>
+      <c r="R79" s="106"/>
+      <c r="S79" s="106"/>
+      <c r="T79" s="106"/>
+    </row>
+    <row r="80" spans="1:20" ht="16.5">
+      <c r="A80" s="115" t="s">
+        <v>477</v>
+      </c>
+      <c r="B80" s="109" t="s">
+        <v>474</v>
+      </c>
+      <c r="C80" s="106"/>
+      <c r="D80" s="106"/>
+      <c r="E80" s="106"/>
+      <c r="F80" s="106"/>
+      <c r="G80" s="106"/>
+      <c r="H80" s="106"/>
+      <c r="I80" s="106"/>
+      <c r="J80" s="106"/>
+      <c r="K80" s="106"/>
+      <c r="L80" s="106"/>
+      <c r="M80" s="106"/>
+      <c r="N80" s="106"/>
+      <c r="O80" s="106"/>
+      <c r="P80" s="106"/>
+      <c r="Q80" s="106"/>
+      <c r="R80" s="106"/>
+      <c r="S80" s="106"/>
+      <c r="T80" s="106"/>
+    </row>
+    <row r="81" spans="1:20" ht="16.5">
+      <c r="A81" s="115" t="s">
+        <v>478</v>
+      </c>
+      <c r="B81" s="109" t="s">
+        <v>474</v>
+      </c>
+      <c r="C81" s="108">
+        <v>2000</v>
+      </c>
+      <c r="D81" s="108">
+        <v>2001</v>
+      </c>
+      <c r="E81" s="108">
+        <v>2002</v>
+      </c>
+      <c r="F81" s="108">
+        <v>2003</v>
+      </c>
+      <c r="G81" s="108">
+        <v>2004</v>
+      </c>
+      <c r="H81" s="108">
+        <v>2005</v>
+      </c>
+      <c r="I81" s="108">
+        <v>2006</v>
+      </c>
+      <c r="J81" s="108">
+        <v>2007</v>
+      </c>
+      <c r="K81" s="108">
+        <v>2008</v>
+      </c>
+      <c r="L81" s="108">
+        <v>2009</v>
+      </c>
+      <c r="M81" s="108">
+        <v>2010</v>
+      </c>
+      <c r="N81" s="108">
+        <v>2011</v>
+      </c>
+      <c r="O81" s="108">
+        <v>2012</v>
+      </c>
+      <c r="P81" s="108">
+        <v>2013</v>
+      </c>
+      <c r="Q81" s="108">
+        <v>2014</v>
+      </c>
+      <c r="R81" s="108">
+        <v>2015</v>
+      </c>
+      <c r="S81" s="108">
+        <v>2016</v>
+      </c>
+      <c r="T81" s="108">
         <v>2017</v>
       </c>
-      <c r="C55">
-        <v>2018</v>
-      </c>
-      <c r="D55">
-        <v>2019</v>
-      </c>
-      <c r="E55">
-        <v>2020</v>
-      </c>
-      <c r="F55">
-        <v>2021</v>
-      </c>
-      <c r="G55">
-        <v>2022</v>
-      </c>
-      <c r="H55">
-        <v>2023</v>
-      </c>
-      <c r="I55">
-        <v>2024</v>
-      </c>
-      <c r="J55">
-        <v>2025</v>
-      </c>
-      <c r="K55">
-        <v>2026</v>
-      </c>
-      <c r="L55">
-        <v>2027</v>
-      </c>
-      <c r="M55">
-        <v>2028</v>
-      </c>
-      <c r="N55">
-        <v>2029</v>
-      </c>
-      <c r="O55">
-        <v>2030</v>
-      </c>
-      <c r="P55">
-        <v>2031</v>
-      </c>
-      <c r="Q55">
-        <v>2032</v>
-      </c>
-      <c r="R55">
-        <v>2033</v>
-      </c>
-      <c r="S55">
-        <v>2034</v>
-      </c>
-      <c r="T55">
-        <v>2035</v>
-      </c>
-      <c r="U55">
-        <v>2036</v>
-      </c>
-      <c r="V55">
-        <v>2037</v>
-      </c>
-      <c r="W55">
-        <v>2038</v>
-      </c>
-      <c r="X55">
-        <v>2039</v>
-      </c>
-      <c r="Y55">
-        <v>2040</v>
-      </c>
-      <c r="Z55">
-        <v>2041</v>
-      </c>
-      <c r="AA55">
-        <v>2042</v>
-      </c>
-      <c r="AB55">
-        <v>2043</v>
-      </c>
-      <c r="AC55">
-        <v>2044</v>
-      </c>
-      <c r="AD55">
-        <v>2045</v>
-      </c>
-      <c r="AE55">
-        <v>2046</v>
-      </c>
-      <c r="AF55">
-        <v>2047</v>
-      </c>
-      <c r="AG55">
-        <v>2048</v>
-      </c>
-      <c r="AH55">
-        <v>2049</v>
-      </c>
-      <c r="AI55">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35">
-      <c r="A56" t="s">
-        <v>357</v>
-      </c>
-      <c r="B56" s="71">
-        <v>720810.99964225199</v>
-      </c>
-      <c r="C56" s="71">
-        <v>729418.837663176</v>
-      </c>
-      <c r="D56" s="71">
-        <v>743098.01211825595</v>
-      </c>
-      <c r="E56" s="71">
-        <v>751891.13849257794</v>
-      </c>
-      <c r="F56" s="71">
-        <v>763910.37373676198</v>
-      </c>
-      <c r="G56" s="71">
-        <v>777238.796738317</v>
-      </c>
-      <c r="H56" s="71">
-        <v>787767.22000888595</v>
-      </c>
-      <c r="I56" s="71">
-        <v>793516.73142701504</v>
-      </c>
-      <c r="J56" s="71">
-        <v>798817.95887333702</v>
-      </c>
-      <c r="K56" s="71">
-        <v>808934.24585518998</v>
-      </c>
-      <c r="L56" s="71">
-        <v>815718.19299348001</v>
-      </c>
-      <c r="M56" s="71">
-        <v>823194.17535101902</v>
-      </c>
-      <c r="N56" s="71">
-        <v>831987.82600806199</v>
-      </c>
-      <c r="O56" s="71">
-        <v>840060.45541615901</v>
-      </c>
-      <c r="P56" s="71">
-        <v>848339.51518581505</v>
-      </c>
-      <c r="Q56" s="71">
-        <v>856988.09343168698</v>
-      </c>
-      <c r="R56" s="71">
-        <v>866492.28291246505</v>
-      </c>
-      <c r="S56" s="71">
-        <v>876157.08326819795</v>
-      </c>
-      <c r="T56" s="71">
-        <v>886641.71621423704</v>
-      </c>
-      <c r="U56" s="71">
-        <v>896713.50248510903</v>
-      </c>
-      <c r="V56" s="71">
-        <v>907143.85934577405</v>
-      </c>
-      <c r="W56" s="71">
-        <v>917503.39793054305</v>
-      </c>
-      <c r="X56" s="71">
-        <v>927884.96265941497</v>
-      </c>
-      <c r="Y56" s="71">
-        <v>938158.82877864596</v>
-      </c>
-      <c r="Z56" s="71">
-        <v>951148.23234745103</v>
-      </c>
-      <c r="AA56" s="71">
-        <v>964476.92440737702</v>
-      </c>
-      <c r="AB56" s="71">
-        <v>977217.54383267602</v>
-      </c>
-      <c r="AC56" s="71">
-        <v>988979.97900000005</v>
-      </c>
-      <c r="AD56" s="71">
-        <v>999145.66804405802</v>
-      </c>
-      <c r="AE56" s="71">
-        <v>1008014.18977355</v>
-      </c>
-      <c r="AF56" s="71">
-        <v>1015259.28680117</v>
-      </c>
-      <c r="AG56" s="71">
-        <v>1021637.63934846</v>
-      </c>
-      <c r="AH56" s="71">
-        <v>1029929.35193774</v>
-      </c>
-      <c r="AI56" s="71">
-        <v>1035428.25640777</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35">
-      <c r="A57" t="s">
-        <v>358</v>
-      </c>
-      <c r="B57" s="71">
-        <v>37357.539955084001</v>
-      </c>
-      <c r="C57" s="71">
-        <v>58326.997084083203</v>
-      </c>
-      <c r="D57" s="71">
-        <v>89872.177153049895</v>
-      </c>
-      <c r="E57" s="71">
-        <v>123973.75337514799</v>
-      </c>
-      <c r="F57" s="71">
-        <v>147046.94049783601</v>
-      </c>
-      <c r="G57" s="71">
-        <v>194209.117771544</v>
-      </c>
-      <c r="H57" s="71">
-        <v>263621.33450470603</v>
-      </c>
-      <c r="I57" s="71">
-        <v>348222.10433122498</v>
-      </c>
-      <c r="J57" s="71">
-        <v>449677.36956727598</v>
-      </c>
-      <c r="K57" s="71">
-        <v>567250.33407906804</v>
-      </c>
-      <c r="L57" s="71">
-        <v>682699.97497327498</v>
-      </c>
-      <c r="M57" s="71">
-        <v>808866.49420975696</v>
-      </c>
-      <c r="N57" s="71">
-        <v>944149.59210737003</v>
-      </c>
-      <c r="O57" s="71">
-        <v>1087799.4135117501</v>
-      </c>
-      <c r="P57" s="71">
-        <v>1248928.95376461</v>
-      </c>
-      <c r="Q57" s="71">
-        <v>1417217.6619132301</v>
-      </c>
-      <c r="R57" s="71">
-        <v>1601965.6638325199</v>
-      </c>
-      <c r="S57" s="71">
-        <v>1804283.82424161</v>
-      </c>
-      <c r="T57" s="71">
-        <v>2028166.6549714101</v>
-      </c>
-      <c r="U57" s="71">
-        <v>2268913.6220836202</v>
-      </c>
-      <c r="V57" s="71">
-        <v>2532396.12530122</v>
-      </c>
-      <c r="W57" s="71">
-        <v>2818139.2650957298</v>
-      </c>
-      <c r="X57" s="71">
-        <v>3125810.9217527602</v>
-      </c>
-      <c r="Y57" s="71">
-        <v>3455359.3190627</v>
-      </c>
-      <c r="Z57" s="71">
-        <v>3831363.4321226599</v>
-      </c>
-      <c r="AA57" s="71">
-        <v>4224600.8382268399</v>
-      </c>
-      <c r="AB57" s="71">
-        <v>4633367.4725127798</v>
-      </c>
-      <c r="AC57" s="71">
-        <v>5055339.0592907201</v>
-      </c>
-      <c r="AD57" s="71">
-        <v>5487268.7709278399</v>
-      </c>
-      <c r="AE57" s="71">
-        <v>5926873.6993514895</v>
-      </c>
-      <c r="AF57" s="71">
-        <v>6371704.8379943604</v>
-      </c>
-      <c r="AG57" s="71">
-        <v>6819965.2690479504</v>
-      </c>
-      <c r="AH57" s="71">
-        <v>7269458.2234470705</v>
-      </c>
-      <c r="AI57" s="71">
-        <v>7717968.2351062503</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35">
-      <c r="A58" t="s">
-        <v>359</v>
-      </c>
-      <c r="B58" s="71">
-        <v>10327.0550413947</v>
-      </c>
-      <c r="C58" s="71">
-        <v>16273.485403594999</v>
-      </c>
-      <c r="D58" s="71">
-        <v>25235.6760838265</v>
-      </c>
-      <c r="E58" s="71">
-        <v>35003.742112230597</v>
-      </c>
-      <c r="F58" s="71">
-        <v>46422.615165334399</v>
-      </c>
-      <c r="G58" s="71">
-        <v>70076.416991261402</v>
-      </c>
-      <c r="H58" s="71">
-        <v>105138.765496712</v>
-      </c>
-      <c r="I58" s="71">
-        <v>148020.98780097801</v>
-      </c>
-      <c r="J58" s="71">
-        <v>201209.94760598801</v>
-      </c>
-      <c r="K58" s="71">
-        <v>263859.44711097499</v>
-      </c>
-      <c r="L58" s="71">
-        <v>336415.39837109798</v>
-      </c>
-      <c r="M58" s="71">
-        <v>424665.56822639302</v>
-      </c>
-      <c r="N58" s="71">
-        <v>527461.16429113096</v>
-      </c>
-      <c r="O58" s="71">
-        <v>644277.93283186399</v>
-      </c>
-      <c r="P58" s="71">
-        <v>787771.16284801299</v>
-      </c>
-      <c r="Q58" s="71">
-        <v>952144.45210472494</v>
-      </c>
-      <c r="R58" s="71">
-        <v>1142683.94633997</v>
-      </c>
-      <c r="S58" s="71">
-        <v>1360359.5399448101</v>
-      </c>
-      <c r="T58" s="71">
-        <v>1608506.0840139701</v>
-      </c>
-      <c r="U58" s="71">
-        <v>1884438.3360099799</v>
-      </c>
-      <c r="V58" s="71">
-        <v>2183037.9101581802</v>
-      </c>
-      <c r="W58" s="71">
-        <v>2503513.4846439101</v>
-      </c>
-      <c r="X58" s="71">
-        <v>2844945.5613719998</v>
-      </c>
-      <c r="Y58" s="71">
-        <v>3206855.5998881501</v>
-      </c>
-      <c r="Z58" s="71">
-        <v>3603093.3353948598</v>
-      </c>
-      <c r="AA58" s="71">
-        <v>4014181.85414259</v>
-      </c>
-      <c r="AB58" s="71">
-        <v>4437806.1924336599</v>
-      </c>
-      <c r="AC58" s="71">
-        <v>4871702.4128202004</v>
-      </c>
-      <c r="AD58" s="71">
-        <v>5312889.6671856204</v>
-      </c>
-      <c r="AE58" s="71">
-        <v>5759145.71912253</v>
-      </c>
-      <c r="AF58" s="71">
-        <v>6191261.9922858803</v>
-      </c>
-      <c r="AG58" s="71">
-        <v>6608615.2973933304</v>
-      </c>
-      <c r="AH58" s="71">
-        <v>7010278.4760777801</v>
-      </c>
-      <c r="AI58" s="71">
-        <v>7395600.8726533204</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35">
-      <c r="A59" t="s">
-        <v>438</v>
-      </c>
-      <c r="B59" s="71">
-        <v>24323051.2048328</v>
-      </c>
-      <c r="C59" s="71">
-        <v>24314466.586231101</v>
-      </c>
-      <c r="D59" s="71">
-        <v>24458849.130264699</v>
-      </c>
-      <c r="E59" s="71">
-        <v>24494139.1171887</v>
-      </c>
-      <c r="F59" s="71">
-        <v>24740585.880821299</v>
-      </c>
-      <c r="G59" s="71">
-        <v>24991059.430233501</v>
-      </c>
-      <c r="H59" s="71">
-        <v>25154555.180503901</v>
-      </c>
-      <c r="I59" s="71">
-        <v>25129305.192068201</v>
-      </c>
-      <c r="J59" s="71">
-        <v>25077696.041092299</v>
-      </c>
-      <c r="K59" s="71">
-        <v>25147985.9374124</v>
-      </c>
-      <c r="L59" s="71">
-        <v>25129222.531082701</v>
-      </c>
-      <c r="M59" s="71">
-        <v>25051298.512529001</v>
-      </c>
-      <c r="N59" s="71">
-        <v>24913946.029991001</v>
-      </c>
-      <c r="O59" s="71">
-        <v>24718085.4514958</v>
-      </c>
-      <c r="P59" s="71">
-        <v>24474613.332079399</v>
-      </c>
-      <c r="Q59" s="71">
-        <v>24172705.884193901</v>
-      </c>
-      <c r="R59" s="71">
-        <v>23818596.660266001</v>
-      </c>
-      <c r="S59" s="71">
-        <v>23409659.573408499</v>
-      </c>
-      <c r="T59" s="71">
-        <v>22946635.296310201</v>
-      </c>
-      <c r="U59" s="71">
-        <v>22419504.569056001</v>
-      </c>
-      <c r="V59" s="71">
-        <v>21838219.317860801</v>
-      </c>
-      <c r="W59" s="71">
-        <v>21201597.598665599</v>
-      </c>
-      <c r="X59" s="71">
-        <v>20510851.0288506</v>
-      </c>
-      <c r="Y59" s="71">
-        <v>19769540.610420998</v>
-      </c>
-      <c r="Z59" s="71">
-        <v>19002695.918524999</v>
-      </c>
-      <c r="AA59" s="71">
-        <v>18192855.549308401</v>
-      </c>
-      <c r="AB59" s="71">
-        <v>17350523.4840988</v>
-      </c>
-      <c r="AC59" s="71">
-        <v>16479198.0126878</v>
-      </c>
-      <c r="AD59" s="71">
-        <v>15720312.861592099</v>
-      </c>
-      <c r="AE59" s="71">
-        <v>14942055.6564925</v>
-      </c>
-      <c r="AF59" s="71">
-        <v>14167444.2045977</v>
-      </c>
-      <c r="AG59" s="71">
-        <v>13402731.2873595</v>
-      </c>
-      <c r="AH59" s="71">
-        <v>12649779.0194759</v>
-      </c>
-      <c r="AI59" s="71">
-        <v>11913124.890809299</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35">
-      <c r="A60" t="s">
-        <v>439</v>
-      </c>
-      <c r="B60" s="71">
-        <v>122858.28743417699</v>
-      </c>
-      <c r="C60" s="71">
-        <v>184614.529730732</v>
-      </c>
-      <c r="D60" s="71">
-        <v>277165.28416891099</v>
-      </c>
-      <c r="E60" s="71">
-        <v>373679.46433822502</v>
-      </c>
-      <c r="F60" s="71">
-        <v>422571.84557802603</v>
-      </c>
-      <c r="G60" s="71">
-        <v>520027.38650903001</v>
-      </c>
-      <c r="H60" s="71">
-        <v>662419.49745542102</v>
-      </c>
-      <c r="I60" s="71">
-        <v>835390.19050827203</v>
-      </c>
-      <c r="J60" s="71">
-        <v>1034535.40718703</v>
-      </c>
-      <c r="K60" s="71">
-        <v>1273350.9064503401</v>
-      </c>
-      <c r="L60" s="71">
-        <v>1519217.1561012899</v>
-      </c>
-      <c r="M60" s="71">
-        <v>1797047.76369697</v>
-      </c>
-      <c r="N60" s="71">
-        <v>2103154.76865419</v>
-      </c>
-      <c r="O60" s="71">
-        <v>2435800.0382288899</v>
-      </c>
-      <c r="P60" s="71">
-        <v>2764495.1597402799</v>
-      </c>
-      <c r="Q60" s="71">
-        <v>3069374.6781040099</v>
-      </c>
-      <c r="R60" s="71">
-        <v>3369250.29685118</v>
-      </c>
-      <c r="S60" s="71">
-        <v>3666238.9131938298</v>
-      </c>
-      <c r="T60" s="71">
-        <v>3967593.9293643301</v>
-      </c>
-      <c r="U60" s="71">
-        <v>4263946.8985222299</v>
-      </c>
-      <c r="V60" s="71">
-        <v>4565477.3384273797</v>
-      </c>
-      <c r="W60" s="71">
-        <v>4871068.53356901</v>
-      </c>
-      <c r="X60" s="71">
-        <v>5180489.2296960596</v>
-      </c>
-      <c r="Y60" s="71">
-        <v>5493858.3185096597</v>
-      </c>
-      <c r="Z60" s="71">
-        <v>5854351.4851850104</v>
-      </c>
-      <c r="AA60" s="71">
-        <v>6213664.6147896098</v>
-      </c>
-      <c r="AB60" s="71">
-        <v>6571535.5728631699</v>
-      </c>
-      <c r="AC60" s="71">
-        <v>6926321.4420038797</v>
-      </c>
-      <c r="AD60" s="71">
-        <v>7143853.25650902</v>
-      </c>
-      <c r="AE60" s="71">
-        <v>7360446.76954656</v>
-      </c>
-      <c r="AF60" s="71">
-        <v>7575444.13255654</v>
-      </c>
-      <c r="AG60" s="71">
-        <v>7788213.6846246198</v>
-      </c>
-      <c r="AH60" s="71">
-        <v>7998927.4854431702</v>
-      </c>
-      <c r="AI60" s="71">
-        <v>8205777.8515621601</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35">
-      <c r="A62" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35">
-      <c r="A64" t="s">
-        <v>445</v>
-      </c>
-      <c r="B64" s="71">
-        <f>B56+B59</f>
-        <v>25043862.204475053</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="101" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>448</v>
+    </row>
+    <row r="82" spans="1:20" ht="16.5">
+      <c r="A82" s="115" t="s">
+        <v>479</v>
+      </c>
+      <c r="B82" s="109" t="s">
+        <v>474</v>
+      </c>
+      <c r="C82" s="119">
+        <v>180.3</v>
+      </c>
+      <c r="D82" s="119">
+        <v>180.7</v>
+      </c>
+      <c r="E82" s="119">
+        <v>188.1</v>
+      </c>
+      <c r="F82" s="119">
+        <v>185.5</v>
+      </c>
+      <c r="G82" s="119">
+        <v>187.2</v>
+      </c>
+      <c r="H82" s="119">
+        <v>189.1</v>
+      </c>
+      <c r="I82" s="119">
+        <v>189</v>
+      </c>
+      <c r="J82" s="119">
+        <v>188.8</v>
+      </c>
+      <c r="K82" s="119">
+        <v>177.3</v>
+      </c>
+      <c r="L82" s="119">
+        <v>170.2</v>
+      </c>
+      <c r="M82" s="119">
+        <v>165.1</v>
+      </c>
+      <c r="N82" s="119">
+        <v>161.80000000000001</v>
+      </c>
+      <c r="O82" s="119">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="P82" s="119">
+        <v>160.9</v>
+      </c>
+      <c r="Q82" s="119">
+        <v>162.5</v>
+      </c>
+      <c r="R82" s="119">
+        <v>166.2</v>
+      </c>
+      <c r="S82" s="119">
+        <v>168.8</v>
+      </c>
+      <c r="T82" s="119">
+        <v>169.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="16.5">
+      <c r="A83" s="115" t="s">
+        <v>480</v>
+      </c>
+      <c r="B83" s="109" t="s">
+        <v>474</v>
+      </c>
+      <c r="C83" s="119">
+        <v>104.8</v>
+      </c>
+      <c r="D83" s="119">
+        <v>122</v>
+      </c>
+      <c r="E83" s="119">
+        <v>108.6</v>
+      </c>
+      <c r="F83" s="119">
+        <v>112.6</v>
+      </c>
+      <c r="G83" s="119">
+        <v>115.2</v>
+      </c>
+      <c r="H83" s="119">
+        <v>107.9</v>
+      </c>
+      <c r="I83" s="119">
+        <v>104.5</v>
+      </c>
+      <c r="J83" s="119">
+        <v>113.9</v>
+      </c>
+      <c r="K83" s="119">
+        <v>120.1</v>
+      </c>
+      <c r="L83" s="119">
+        <v>101.4</v>
+      </c>
+      <c r="M83" s="119">
+        <v>90.3</v>
+      </c>
+      <c r="N83" s="119">
+        <v>88</v>
+      </c>
+      <c r="O83" s="119">
+        <v>95.5</v>
+      </c>
+      <c r="P83" s="119">
+        <v>89.4</v>
+      </c>
+      <c r="Q83" s="119">
+        <v>88.5</v>
+      </c>
+      <c r="R83" s="119">
+        <v>83.8</v>
+      </c>
+      <c r="S83" s="119">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="T83" s="119">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="16.5">
+      <c r="B84" s="109" t="s">
+        <v>474</v>
+      </c>
+      <c r="C84" s="119">
+        <v>97.4</v>
+      </c>
+      <c r="D84" s="119">
+        <v>95.4</v>
+      </c>
+      <c r="E84" s="119">
+        <v>96.5</v>
+      </c>
+      <c r="F84" s="119">
+        <v>95.6</v>
+      </c>
+      <c r="G84" s="119">
+        <v>98</v>
+      </c>
+      <c r="H84" s="119">
+        <v>95.9</v>
+      </c>
+      <c r="I84" s="119">
+        <v>93.3</v>
+      </c>
+      <c r="J84" s="119">
+        <v>90.2</v>
+      </c>
+      <c r="K84" s="119">
+        <v>90.5</v>
+      </c>
+      <c r="L84" s="119">
+        <v>87.9</v>
+      </c>
+      <c r="M84" s="119">
+        <v>91.5</v>
+      </c>
+      <c r="N84" s="119">
+        <v>90.2</v>
+      </c>
+      <c r="O84" s="119">
+        <v>91.1</v>
+      </c>
+      <c r="P84" s="119">
+        <v>93.7</v>
+      </c>
+      <c r="Q84" s="119">
+        <v>94</v>
+      </c>
+      <c r="R84" s="119">
+        <v>91.5</v>
+      </c>
+      <c r="S84" s="119">
+        <v>89.5</v>
+      </c>
+      <c r="T84" s="119">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="A85" s="114" t="s">
+        <v>481</v>
+      </c>
+      <c r="C85" s="119">
+        <v>44</v>
+      </c>
+      <c r="D85" s="119">
+        <v>42.9</v>
+      </c>
+      <c r="E85" s="119">
+        <v>44.9</v>
+      </c>
+      <c r="F85" s="119">
+        <v>43.3</v>
+      </c>
+      <c r="G85" s="119">
+        <v>44.6</v>
+      </c>
+      <c r="H85" s="119">
+        <v>43.1</v>
+      </c>
+      <c r="I85" s="119">
+        <v>43.8</v>
+      </c>
+      <c r="J85" s="119">
+        <v>44</v>
+      </c>
+      <c r="K85" s="119">
+        <v>44.4</v>
+      </c>
+      <c r="L85" s="119">
+        <v>44.5</v>
+      </c>
+      <c r="M85" s="119">
+        <v>45.9</v>
+      </c>
+      <c r="N85" s="119">
+        <v>46.4</v>
+      </c>
+      <c r="O85" s="119">
+        <v>43.8</v>
+      </c>
+      <c r="P85" s="119">
+        <v>44.4</v>
+      </c>
+      <c r="Q85" s="119">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="R85" s="119">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="S85" s="119">
+        <v>40.6</v>
+      </c>
+      <c r="T85" s="119">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
+      <c r="A86" s="114"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="119">
+        <v>31</v>
+      </c>
+      <c r="D86" s="119">
+        <v>31.1</v>
+      </c>
+      <c r="E86" s="119">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F86" s="119">
+        <v>33.5</v>
+      </c>
+      <c r="G86" s="119">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H86" s="119">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="I86" s="119">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="J86" s="119">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="K86" s="119">
+        <v>35.1</v>
+      </c>
+      <c r="L86" s="119">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="M86" s="119">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="N86" s="119">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="O86" s="119">
+        <v>35.5</v>
+      </c>
+      <c r="P86" s="119">
+        <v>34</v>
+      </c>
+      <c r="Q86" s="119">
+        <v>35.1</v>
+      </c>
+      <c r="R86" s="119">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="S86" s="119">
+        <v>33.5</v>
+      </c>
+      <c r="T86" s="119">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
+      <c r="A87" t="s">
+        <v>485</v>
+      </c>
+      <c r="B87" s="107"/>
+      <c r="C87" s="119">
+        <v>6.3</v>
+      </c>
+      <c r="D87" s="119">
+        <v>6.6</v>
+      </c>
+      <c r="E87" s="119">
+        <v>7.1</v>
+      </c>
+      <c r="F87" s="119">
+        <v>7.8</v>
+      </c>
+      <c r="G87" s="119">
+        <v>8.5</v>
+      </c>
+      <c r="H87" s="119">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I87" s="119">
+        <v>10.1</v>
+      </c>
+      <c r="J87" s="119">
+        <v>10.8</v>
+      </c>
+      <c r="K87" s="119">
+        <v>11.7</v>
+      </c>
+      <c r="L87" s="119">
+        <v>12.3</v>
+      </c>
+      <c r="M87" s="119">
+        <v>13.5</v>
+      </c>
+      <c r="N87" s="119">
+        <v>14.5</v>
+      </c>
+      <c r="O87" s="119">
+        <v>15.5</v>
+      </c>
+      <c r="P87" s="119">
+        <v>16.8</v>
+      </c>
+      <c r="Q87" s="119">
+        <v>17.7</v>
+      </c>
+      <c r="R87" s="119">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="S87" s="119">
+        <v>19.3</v>
+      </c>
+      <c r="T87" s="119">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
+      <c r="C88" s="119">
+        <v>7.3</v>
+      </c>
+      <c r="D88" s="119">
+        <v>7.5</v>
+      </c>
+      <c r="E88" s="119">
+        <v>7.5</v>
+      </c>
+      <c r="F88" s="119">
+        <v>7.6</v>
+      </c>
+      <c r="G88" s="119">
+        <v>7.6</v>
+      </c>
+      <c r="H88" s="119">
+        <v>7.8</v>
+      </c>
+      <c r="I88" s="119">
+        <v>7.9</v>
+      </c>
+      <c r="J88" s="119">
+        <v>7.9</v>
+      </c>
+      <c r="K88" s="119">
+        <v>8.1</v>
+      </c>
+      <c r="L88" s="119">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M88" s="119">
+        <v>8.4</v>
+      </c>
+      <c r="N88" s="119">
+        <v>8.5</v>
+      </c>
+      <c r="O88" s="119">
+        <v>8.5</v>
+      </c>
+      <c r="P88" s="119">
+        <v>8.5</v>
+      </c>
+      <c r="Q88" s="119">
+        <v>8.6</v>
+      </c>
+      <c r="R88" s="119">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S88" s="119">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="T88" s="119">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="A89" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="A90" t="s">
+        <v>483</v>
+      </c>
+      <c r="B90">
+        <v>176.91300000000001</v>
+      </c>
+      <c r="C90" s="116"/>
+      <c r="D90" s="116"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="116"/>
+      <c r="G90" s="116"/>
+      <c r="H90" s="116"/>
+      <c r="I90" s="116"/>
+      <c r="J90" s="116"/>
+      <c r="K90" s="116"/>
+      <c r="L90" s="116"/>
+      <c r="M90" s="116"/>
+      <c r="N90" s="116"/>
+      <c r="O90" s="116"/>
+      <c r="P90" s="116"/>
+      <c r="Q90" s="116"/>
+      <c r="R90" s="116"/>
+      <c r="S90" s="116"/>
+      <c r="T90" s="116"/>
+    </row>
+    <row r="91" spans="1:20" s="106" customFormat="1">
+      <c r="A91" t="s">
+        <v>484</v>
+      </c>
+      <c r="B91" s="118">
+        <f>T82</f>
+        <v>169.9</v>
+      </c>
+      <c r="C91" s="116"/>
+      <c r="D91" s="116"/>
+      <c r="E91" s="116"/>
+      <c r="F91" s="116"/>
+      <c r="G91" s="116"/>
+      <c r="H91" s="116"/>
+      <c r="I91" s="116"/>
+      <c r="J91" s="116"/>
+      <c r="K91" s="116"/>
+      <c r="L91" s="116"/>
+      <c r="M91" s="116"/>
+      <c r="N91" s="116"/>
+      <c r="O91" s="116"/>
+      <c r="P91" s="116"/>
+      <c r="Q91" s="116"/>
+      <c r="R91" s="116"/>
+      <c r="S91" s="116"/>
+      <c r="T91" s="116"/>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="B92">
+        <f>B91/B90</f>
+        <v>0.96035904653699844</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A16" r:id="rId1"/>
-    <hyperlink ref="A46" r:id="rId2"/>
-    <hyperlink ref="A66" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A21" r:id="rId2"/>
+    <hyperlink ref="A50" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -35558,7 +36634,7 @@
   <dimension ref="A1:AZ103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -35618,20 +36694,20 @@
       <c r="AZ2" s="86"/>
     </row>
     <row r="3" spans="1:52" ht="15" thickBot="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="123" t="s">
         <v>407</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
       <c r="M3" s="86"/>
       <c r="N3" s="86"/>
       <c r="O3" s="86"/>
@@ -35675,61 +36751,61 @@
     </row>
     <row r="4" spans="1:52" s="84" customFormat="1">
       <c r="A4" s="87"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="124" t="s">
         <v>408</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="104" t="s">
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="125" t="s">
         <v>409</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="106"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="125"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="125"/>
+      <c r="AG4" s="125"/>
+      <c r="AH4" s="125"/>
+      <c r="AI4" s="125"/>
+      <c r="AJ4" s="125"/>
+      <c r="AK4" s="125"/>
+      <c r="AL4" s="125"/>
+      <c r="AM4" s="125"/>
+      <c r="AN4" s="125"/>
+      <c r="AO4" s="125"/>
+      <c r="AP4" s="125"/>
+      <c r="AQ4" s="125"/>
+      <c r="AR4" s="125"/>
+      <c r="AS4" s="125"/>
+      <c r="AT4" s="125"/>
+      <c r="AU4" s="125"/>
+      <c r="AV4" s="125"/>
+      <c r="AW4" s="125"/>
+      <c r="AX4" s="125"/>
+      <c r="AY4" s="125"/>
+      <c r="AZ4" s="127"/>
     </row>
     <row r="5" spans="1:52" s="84" customFormat="1">
       <c r="A5" s="88" t="s">

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ca/trans/syvbt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lainie Rowland\Desktop\GitHub Repos\state-eps-data-repository\CA\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF261EC-EA26-6945-B821-6563C4DC0CC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF687BC-406C-4DE7-AA77-F63DEB5F954D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="19700" windowHeight="11580" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5013,9 +5013,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="73.1640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="73.1796875" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5379,15 +5379,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="58" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="58" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="58" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="58" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" style="58" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" style="58" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5617,11 +5617,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="58" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="58" customWidth="1"/>
-    <col min="3" max="5" width="16.83203125" style="58" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" style="58" customWidth="1"/>
+    <col min="3" max="5" width="16.81640625" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5703,10 +5703,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="58" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -6074,9 +6074,9 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="5" max="5" width="13.33203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6427,15 +6427,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="58" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="58" customWidth="1"/>
-    <col min="6" max="8" width="23.33203125" style="58" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="58" customWidth="1"/>
+    <col min="6" max="8" width="23.36328125" style="58" customWidth="1"/>
+    <col min="10" max="10" width="14.36328125" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" customHeight="1">
@@ -6662,16 +6662,16 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="58" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="58" customWidth="1"/>
-    <col min="6" max="8" width="23.33203125" style="58" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="58" customWidth="1"/>
+    <col min="6" max="8" width="23.36328125" style="58" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" customHeight="1">
@@ -6889,9 +6889,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6942,10 +6942,10 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="58" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" style="58" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" style="58" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6328125" style="58" customWidth="1"/>
     <col min="38" max="38" width="8" style="58" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13701,10 +13701,10 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="58" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" style="58" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" style="58" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6328125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
@@ -24321,10 +24321,10 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="58" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" style="58" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" style="58" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6328125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
@@ -29183,9 +29183,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="58" customWidth="1"/>
+    <col min="1" max="1" width="34.6328125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="16" customHeight="1" thickBot="1">
@@ -35023,10 +35023,10 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="58" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" style="58" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" style="58" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6328125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
@@ -54969,10 +54969,10 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="58" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" style="58" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" style="58" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6328125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
@@ -79754,16 +79754,16 @@
       <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="35" style="38" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="10.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="21" max="34" width="10.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="36" max="44" width="9.1640625" style="38" customWidth="1"/>
-    <col min="45" max="16384" width="9.1640625" style="38"/>
+    <col min="2" max="3" width="9.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="10.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="21" max="34" width="10.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.36328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="36" max="44" width="9.1796875" style="38" customWidth="1"/>
+    <col min="45" max="16384" width="9.1796875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="16.5" customHeight="1" thickBot="1">
